--- a/datos/femicidios_2022.xlsx
+++ b/datos/femicidios_2022.xlsx
@@ -5160,22 +5160,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2022-09-06</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Los Lagos</t>
+          <t>Tribunal Juicio Oral en lo Penal de Valvidia</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -5183,6 +5183,11 @@
           <t>1026-2022</t>
         </is>
       </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo</t>
+        </is>
+      </c>
       <c r="AF36" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-rios/2022/09/02/detienen-a-hombre-por-femicidio-en-futrono-cuerpo-fue-hallado-por-hijo-menor-de-edad-de-la-victima.shtml</t>
@@ -5195,7 +5200,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2024-05-08</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5335,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2024-05-08</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5480,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5610,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
@@ -6960,22 +6965,22 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Prisión Preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de San Antonio</t>
+          <t>Tribunal de Juicio Oral en lo Penal de San Antonio</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -6983,6 +6988,11 @@
           <t>9289-2022</t>
         </is>
       </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>18 años de presidio</t>
+        </is>
+      </c>
       <c r="AF50" t="inlineStr">
         <is>
           <t>https://www.adnradio.cl/policial/2022/12/12/asesinan-a-dirigenta-trans-de-73-anosclaudia-diaz-perez-en-cartagena.html</t>
@@ -6993,9 +7003,14 @@
           <t>https://www.elmartutino.cl/noticia/sociedad/revelan-causa-de-muerte-de-dirigente-trans-de-cartagena</t>
         </is>
       </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/100126</t>
+        </is>
+      </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
@@ -7563,9 +7578,19 @@
           <t>Femicidio íntimo</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Homicidio calificado</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Suspendida</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -7575,12 +7600,17 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Parral</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Cauquenes</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>1613-2022</t>
+          <t>184-2023</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
@@ -7588,9 +7618,14 @@
           <t>https://www.linaresenlinea.cl/2022/12/30/decretan-prision-preventiva-para-imputado-por-femicidio-y-homicidio-ocurrido-en-retiro/</t>
         </is>
       </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/106788</t>
+        </is>
+      </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7720,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Suspendida</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7695,7 +7735,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Parral</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Cauquenes</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -7703,14 +7743,24 @@
           <t>1613-2022</t>
         </is>
       </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
+        </is>
+      </c>
       <c r="AF56" t="inlineStr">
         <is>
           <t>https://www.linaresenlinea.cl/2022/12/30/decretan-prision-preventiva-para-imputado-por-femicidio-y-homicidio-ocurrido-en-retiro/</t>
         </is>
       </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/106788</t>
+        </is>
+      </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>

--- a/datos/femicidios_2022.xlsx
+++ b/datos/femicidios_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI64"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,127 +960,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-01-23</t>
+          <t>2022-01-15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pitrufquén</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Araucanía</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>María de los Ángeles Sáez Luengo</t>
+          <t>Valentina Olea</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chilena/Argentina</t>
+          <t>Chilena</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Hombre mató a su ex pareja en la vía pública y además fue formalizado por homicidio frustrado de Manuel Rebolledo Carrasco, joven de 19 años que acudió a intentar rescatar a la víctima</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Ex pareja</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Su pareja denunció a la policía que Valentina se suicidó, sin embargo, su familia defiende que su muerte fue femicidio y que debe ser investigada</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Miguel Rigoberto Gavilán Campos</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Chileno</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Tenía denuncias por VIF y condenas por otros delitos</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Homicidio frustrado, lesiones, robo con violencia</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Suspendida</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2022-01-31</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Prisión preventiva</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Juzgado de Garantía de Pitrufquén</t>
+          <t>SE INVESTIGA</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>200-2022 (reservada)</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>https://www.chvnoticias.cl/sucesos/femicidio-pitrufquen-arma-blanca_20220124/</t>
+          <t>https://www.facebook.com/profile.php?id=100081066290145&amp;locale=ms_MY</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1090,47 +1020,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-01-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Pitrufquén</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Paula Lorena Martínez Espinoza</t>
+          <t>María de los Ángeles Sáez Luengo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chilena</t>
+          <t>Chilena/Argentina</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Apuñalada por su conviviente, quien intentó suicidarse sin éxito. Los encontró la madre de él, quien se encuentra hospitalizado</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Apuñalada</t>
+          <t>Hombre mató a su ex pareja en la vía pública y además fue formalizado por homicidio frustrado de Manuel Rebolledo Carrasco, joven de 19 años que acudió a intentar rescatar a la víctima</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Ex pareja</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1140,12 +1065,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Iván del Rosario González Saldívar</t>
+          <t>Miguel Rigoberto Gavilán Campos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>34</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1155,19 +1080,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Tenía denuncias por VIF y condenas por otros delitos</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>No había denuncias anteriores</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -1178,44 +1103,44 @@
           <t>Femicidio íntimo</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Homicidio frustrado, lesiones, robo con violencia</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Sobreseída</t>
+          <t>Suspendida</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Deceso</t>
+          <t>Prisión preventiva</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Coquimbo</t>
+          <t>Juzgado de Garantía de Pitrufquén</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>449-2022</t>
+          <t>200-2022 (reservada)</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>https://www.24horas.cl/regiones/coquimbo/primer-femicidio-en-coquimbo-madre-denuncio-a-hijo-por-crimen-de-su-pareja-5162710</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>https://www.lacuarta.com/cronica/noticia/conmocion-en-coquimbo-por-impactante-femicidio-madre-denuncio-a-su-hijo-por-asesinar-a-su-pareja/AB6BQDO625E3ZLXG54M5BMCVGU/</t>
+          <t>https://www.chvnoticias.cl/sucesos/femicidio-pitrufquen-arma-blanca_20220124/</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -1225,27 +1150,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-01-29</t>
+          <t>2022-01-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pudahuel</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pamela Olivia Zavala Villar</t>
+          <t>Paula Lorena Martínez Espinoza</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1255,17 +1180,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pololo le dispara en el domiciilio de él, y luego intenta hacer pasar la muerte como suicidio. Sin embargo, polícía lo detiene por no coincidir la trayectoria de la bala con el relato del sujeto</t>
+          <t>Apuñalada por su conviviente, quien intentó suicidarse sin éxito. Los encontró la madre de él, quien se encuentra hospitalizado</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Baleada</t>
+          <t>Apuñalada</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pareja</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1275,12 +1200,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Wilson Arturo Moyano Flores</t>
+          <t>Iván del Rosario González Saldívar</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>50</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1290,7 +1215,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>No había denuncias anteriores</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1308,44 +1238,44 @@
           <t>Femicidio íntimo</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Tráfico de pequeñas cantidades de estupefaciones; posesión, porte o tenencia de arma de fuego</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Concluida</t>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Deceso</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>1º Juzgado de Garantía de Santiago</t>
+          <t>Juzgado de Garantía de Coquimbo</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>370-2022</t>
+          <t>449-2022</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>https://www.24horas.cl/nacional/detienen-a-hombre-por-femicidio-de-su-pareja-intento-fingir-que-la-mujer-se-habia-suicidado-5165990</t>
+          <t>https://www.24horas.cl/regiones/coquimbo/primer-femicidio-en-coquimbo-madre-denuncio-a-hijo-por-crimen-de-su-pareja-5162710</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>https://www.lacuarta.com/cronica/noticia/conmocion-en-coquimbo-por-impactante-femicidio-madre-denuncio-a-su-hijo-por-asesinar-a-su-pareja/AB6BQDO625E3ZLXG54M5BMCVGU/</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2022-12-18</t>
         </is>
       </c>
     </row>
@@ -1355,22 +1285,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-02-04</t>
+          <t>2022-01-29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mulchén</t>
+          <t>Pudahuel</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bio Bío</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>María Elena Becerra Ulloa</t>
+          <t>Pamela Olivia Zavala Villar</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1385,7 +1315,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Cónyuge, tras término de común acuerdo de la relación, le dispara con una escopeta. Al día siguiente, tras denuncia de hijo y mientras se encontraba prófugo, el femicida se suicidó mediante ahorcamiento</t>
+          <t>Pololo le dispara en el domiciilio de él, y luego intenta hacer pasar la muerte como suicidio. Sin embargo, polícía lo detiene por no coincidir la trayectoria de la bala con el relato del sujeto</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1395,7 +1325,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Cónyuge</t>
+          <t>Pareja</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1405,12 +1335,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Daniel Saldaña Grandón</t>
+          <t>Wilson Arturo Moyano Flores</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>43</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1420,57 +1350,57 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Hijo reporta discusiones frecuentes entre sus padres</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>Femicidio íntimo</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Tráfico de pequeñas cantidades de estupefaciones; posesión, porte o tenencia de arma de fuego</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Sobreseída</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2022-02-09</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Deceso</t>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>1º Juzgado de Garantía de Santiago</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>370-2022</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>https://www.24horas.cl/regiones/biobio/estaba-profugo-imputado-por-femicidio-en-mulchen-fue-encontrado-sin-vida-5174424</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/chile/2022/02/05/undefined</t>
+          <t>https://www.24horas.cl/nacional/detienen-a-hombre-por-femicidio-de-su-pareja-intento-fingir-que-la-mujer-se-habia-suicidado-5165990</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1485,37 +1415,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Mulchén</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Bio Bío</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Neila Llarimi Orejuela Mejía</t>
+          <t>María Elena Becerra Ulloa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Colombiana</t>
+          <t>Chilena</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Fue asesinada por su conviviente usando un arma de fuego</t>
+          <t>Cónyuge, tras término de común acuerdo de la relación, le dispara con una escopeta. Al día siguiente, tras denuncia de hijo y mientras se encontraba prófugo, el femicida se suicidó mediante ahorcamiento</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1525,7 +1455,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Cónyuge</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1535,12 +1465,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Álex Mena Valencia</t>
+          <t>Daniel Saldaña Grandón</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>52</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Colombiano</t>
+          <t>Chileno</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1550,7 +1485,12 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Tenía antecedentes de violencia desde que llegaron a Chile.</t>
+          <t>Hijo reporta discusiones frecuentes entre sus padres</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1570,7 +1510,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-02-09</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1578,19 +1518,19 @@
           <t>Deceso</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Juzgado de Garantía de Antofagasta</t>
-        </is>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>8717-2022</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>https://www.sernameg.gob.cl/wp-content/uploads/2022/02/FEMICIDIOS-2022_al1102.pdf</t>
+          <t>https://www.24horas.cl/regiones/biobio/estaba-profugo-imputado-por-femicidio-en-mulchen-fue-encontrado-sin-vida-5174424</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/chile/2022/02/05/undefined</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1605,37 +1545,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-02-20</t>
+          <t>2022-02-10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Viña del Mar</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kimberly Ugalde Palma</t>
+          <t>Neila Llarimi Orejuela Mejía</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chilena</t>
+          <t>Colombiana</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Baleada por conviviente, quien señaló inicialmente fue un accidente. Fue formalizado. En mayo de 2022 es condenado a 20 años de presidio</t>
+          <t>Fue asesinada por su conviviente usando un arma de fuego</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1655,27 +1595,27 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Álex Fabián Brante Farías</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>31</t>
+          <t>Álex Mena Valencia</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Chileno</t>
+          <t>Colombiano</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Tenía antecedentes de violencia desde que llegaron a Chile.</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1683,59 +1623,39 @@
           <t>Femicidio íntimo</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Lesiones en contexto de violencia intrafamiliar, porte ilegal de armas</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Concluida</t>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Privado de libertad</t>
+          <t>Deceso</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Viña del Mar</t>
+          <t>Juzgado de Garantía de Antofagasta</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>No encontrada</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>20 años de presidio mayor en su grado máximo por femicidio</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>3 años y 1 día por tenencia de arma de fuego prohibida; 61 días por lesiones en contexto de violencia intrafamiliar en contra de su hermana</t>
+          <t>8717-2022</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>https://www.latercera.com/nacional/noticia/decretan-prision-preventiva-para-imputado-por-femicidio-en-vina-del-mar/UGVIN42DBNAJ5PYOGPC4GQKSZY/</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>https://www.elmartutino.cl/noticia/sociedad/solicitan-mas-de-20-anos-de-presidio-por-femicidio-de-joven-de-19-anos https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/11/28/condenan-a-20-anos-de-carcel-a-femicida-de-kimberly-ugalde-en-vina-del-mar.shtml</t>
+          <t>https://www.sernameg.gob.cl/wp-content/uploads/2022/02/FEMICIDIOS-2022_al1102.pdf</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -1745,22 +1665,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-02-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Renca</t>
+          <t>Viña del Mar</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Edilia del Carmen Astroza Uribe</t>
+          <t>Kimberly Ugalde Palma</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1770,7 +1695,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Baleada por conviviente, quien luego se suicidó</t>
+          <t>Baleada por conviviente, quien señaló inicialmente fue un accidente. Fue formalizado. En mayo de 2022 es condenado a 20 años de presidio</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1790,12 +1715,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Juan Carlos Quezada González</t>
+          <t>Álex Fabián Brante Farías</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>31</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1805,12 +1730,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1818,19 +1743,29 @@
           <t>Femicidio íntimo</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Lesiones en contexto de violencia intrafamiliar, porte ilegal de armas</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Sobreseída</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Deceso</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Viña del Mar</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -1838,14 +1773,29 @@
           <t>No encontrada</t>
         </is>
       </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>20 años de presidio mayor en su grado máximo por femicidio</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>3 años y 1 día por tenencia de arma de fuego prohibida; 61 días por lesiones en contexto de violencia intrafamiliar en contra de su hermana</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>https://www.sernameg.gob.cl/wp-content/uploads/2022/11/FEMICIDIOS-2022_al25112022.pdf</t>
+          <t>https://www.latercera.com/nacional/noticia/decretan-prision-preventiva-para-imputado-por-femicidio-en-vina-del-mar/UGVIN42DBNAJ5PYOGPC4GQKSZY/</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>https://www.elmartutino.cl/noticia/sociedad/solicitan-mas-de-20-anos-de-presidio-por-femicidio-de-joven-de-19-anos https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/11/28/condenan-a-20-anos-de-carcel-a-femicida-de-kimberly-ugalde-en-vina-del-mar.shtml</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2022-05-10</t>
         </is>
       </c>
     </row>
@@ -1855,27 +1805,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Santa Juana</t>
+          <t>Renca</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bio Bío</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Marta Haydee Núñez Medina</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>40</t>
+          <t>Edilia del Carmen Astroza Uribe</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1883,19 +1828,14 @@
           <t>Chilena</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Dueña de casa. Emprendedora</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Golpeada por conviviente, provocándole traumatismo vascular cervical . CAJ presenta querella en favor de las 3 hijas de Marta, a quienes atendía previamente</t>
+          <t>Baleada por conviviente, quien luego se suicidó</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Arma blanca</t>
+          <t>Baleada</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1910,7 +1850,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>José Miguel Toledo Astete</t>
+          <t>Juan Carlos Quezada González</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>73</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1920,11 +1865,6 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
           <t>Sí</t>
         </is>
       </c>
@@ -1940,7 +1880,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Concluida</t>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1950,42 +1890,22 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Prisión Preventiva</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>Tribunal de Juicio Oral en lo Penal de Concepción</t>
+          <t>Deceso</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>68-2022 (reservada)</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>Presidio perpetuo simple</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>https://www.tvu.cl/prensa/mensaje-directo/2022/03/15/realizan-funeral-multitudinario-por-femicidio-en-santa-juana-hay-menores-que-quedaron-huerfanas.html</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=oYO-6_aJ1OY</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2023/11/05/condenan-a-presidio-perpetuo-a-hombre-que-asesino-a-su-esposa-en-santa-juana.shtml</t>
+          <t>https://www.sernameg.gob.cl/wp-content/uploads/2022/11/FEMICIDIOS-2022_al25112022.pdf</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2022-12-18</t>
         </is>
       </c>
     </row>
@@ -1995,27 +1915,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Santa Juana</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Bio Bío</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Teresa del Carmen Parra Miranda</t>
+          <t>Marta Haydee Núñez Medina</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2023,14 +1943,19 @@
           <t>Chilena</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dueña de casa. Emprendedora</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Baleada en el hombro por conviviente, militar en retiro, que constantemente la acosaba y controlaba. Al ser detenido hace disparos al aire y agrede y amenaza a Carabineros. Durante formalización denuncia a Carabineros por lesiones 1760-2022</t>
+          <t>Golpeada por conviviente, provocándole traumatismo vascular cervical . CAJ presenta querella en favor de las 3 hijas de Marta, a quienes atendía previamente</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Baleada</t>
+          <t>Arma blanca</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2045,12 +1970,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>José Alejandro Pérez Arce</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>63</t>
+          <t>José Miguel Toledo Astete</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2058,24 +1978,14 @@
           <t>Chileno</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Militar en retiro</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Parientes y amistades dicen que el sujeto la celaba, acosaba y hostigaba permanentemente</t>
-        </is>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2088,44 +1998,54 @@
           <t>Femicidio íntimo</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Homicidio frustrado, disparos injustificados, amenaza a carabineros</t>
-        </is>
-      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Suspendida</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2022-12-03</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Internación provisional</t>
+          <t>Prisión Preventiva</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Valparaíso</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Concepción</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>1754-2022</t>
+          <t>68-2022 (reservada)</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>https://www.24horas.cl/regiones/valparaiso/portenos-exigen-justicia-por-el-macabro-femicidio-de-teresa-parra-asesinada-la-noche-de-este-martes-5227184</t>
+          <t>https://www.tvu.cl/prensa/mensaje-directo/2022/03/15/realizan-funeral-multitudinario-por-femicidio-en-santa-juana-hay-menores-que-quedaron-huerfanas.html</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oYO-6_aJ1OY</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2023/11/05/condenan-a-presidio-perpetuo-a-hombre-que-asesino-a-su-esposa-en-santa-juana.shtml</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -2135,27 +2055,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ana Alejandra Almonacid Águila</t>
+          <t>Teresa del Carmen Parra Miranda</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2165,32 +2085,32 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Rociada con bencina y luego quemada el 12 de marzo de 2022. Estuvo hospitalizada hasta el 15 de abril de 2022, cuando fallece. Tanto la Fiscalía como el Ministerio de la Mujer y Equidad de Género se refieren a femicidio por razones de género, quedando el sujeto formalizado de tal forma, utilizando Ley Gabriela. El 30 de abril de 2022 se reporta que el sujeto se suicidó mientras se encontraba en prisión preventiva</t>
+          <t>Baleada en el hombro por conviviente, militar en retiro, que constantemente la acosaba y controlaba. Al ser detenido hace disparos al aire y agrede y amenaza a Carabineros. Durante formalización denuncia a Carabineros por lesiones 1760-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Quemada</t>
+          <t>Baleada</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Conocido</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Lesbofemicidio</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>José Omar Barría Imío</t>
+          <t>José Alejandro Pérez Arce</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>63</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2198,64 +2118,69 @@
           <t>Chileno</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Militar en retiro</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Parientes y amistades dicen que el sujeto la celaba, acosaba y hostigaba permanentemente</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>No existía ningún vínculo entre la víctima y el imputado, por lo cual se calificó como femicidio consumado por razones de género, debido a la orientación sexual de la víctima. La hermana de la víctima, Carla, concuerda con estas afirmaciones. “Hay antecedentes de que con anterioridad este mismo sujeto había agredido a un hombre por su orientación sexual”</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Femicidio no íntimo</t>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Homicidio frustrado, disparos injustificados, amenaza a carabineros</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Sobreseída</t>
+          <t>Suspendida</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-12-03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Deceso</t>
+          <t>Internación provisional</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Puerto Montt</t>
+          <t>Juzgado de Garantía de Valparaíso</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>1588-2022</t>
+          <t>1754-2022</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-lagos/2022/04/27/sernameg-se-querella-por-femicidio-en-puerto-montt-fiscalia-investiga-crimen-por-orientacion-sexual.shtml https://www.cnnchile.com/pais/crimen-lesbofobico-puerto-montt_20220427/</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>https://www.diariodepuertomontt.cl/noticia/actualidad/2022/04/se-suicido-imputado-por-femicidio-intimo</t>
+          <t>https://www.24horas.cl/regiones/valparaiso/portenos-exigen-justicia-por-el-macabro-femicidio-de-teresa-parra-asesinada-la-noche-de-este-martes-5227184</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2270,27 +2195,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rengo</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ohiggins</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cinthia Carolina Vivanco Muñoz</t>
+          <t>Ana Alejandra Almonacid Águila</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2300,27 +2225,32 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Atacada con elemento cortapunzante en su casa por su esposo, quien luego de asesinarla se suicidó. Los cuerpos fueron encontrados por familiares. Tenían dos hijos en común.</t>
+          <t>Rociada con bencina y luego quemada el 12 de marzo de 2022. Estuvo hospitalizada hasta el 15 de abril de 2022, cuando fallece. Tanto la Fiscalía como el Ministerio de la Mujer y Equidad de Género se refieren a femicidio por razones de género, quedando el sujeto formalizado de tal forma, utilizando Ley Gabriela. El 30 de abril de 2022 se reporta que el sujeto se suicidó mientras se encontraba en prisión preventiva</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Apuñalada</t>
+          <t>Quemada</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Cónyuge</t>
+          <t>Conocido</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Lesbofemicidio</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Rodrigo Saavedra Carreño</t>
+          <t>José Omar Barría Imío</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2328,16 +2258,16 @@
           <t>Chileno</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Funcionario de Gendarmería</t>
-        </is>
-      </c>
       <c r="R15" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No existía ningún vínculo entre la víctima y el imputado, por lo cual se calificó como femicidio consumado por razones de género, debido a la orientación sexual de la víctima. La hermana de la víctima, Carla, concuerda con estas afirmaciones. “Hay antecedentes de que con anterioridad este mismo sujeto había agredido a un hombre por su orientación sexual”</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr">
         <is>
           <t>No</t>
@@ -2348,29 +2278,44 @@
           <t>Sí</t>
         </is>
       </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Femicidio no íntimo</t>
+        </is>
+      </c>
       <c r="Y15" t="inlineStr">
         <is>
           <t>Sobreseída</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>Deceso</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Puerto Montt</t>
+        </is>
+      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>1588-2022</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>https://eltipografo.cl/2022/04/ahora-femicidio-en-la-comuna-de-rengo https://eltipografo.cl/2022/04/cientos-de-personas-participaron-en-velaton-por-cinthia-vivanco-tras-femicidio</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-lagos/2022/04/27/sernameg-se-querella-por-femicidio-en-puerto-montt-fiscalia-investiga-crimen-por-orientacion-sexual.shtml https://www.cnnchile.com/pais/crimen-lesbofobico-puerto-montt_20220427/</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>https://www.elrancaguino.cl/2022/04/20/primer-femicidio-regional-deja-gran-dolor-en-rengo/</t>
+          <t>https://www.diariodepuertomontt.cl/noticia/actualidad/2022/04/se-suicido-imputado-por-femicidio-intimo</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2385,27 +2330,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Osorno</t>
+          <t>Rengo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>Ohiggins</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Yocelyn Lorena Monsalvez Vera</t>
+          <t>Cinthia Carolina Vivanco Muñoz</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2415,17 +2360,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Asfixiada por conviviente</t>
+          <t>Atacada con elemento cortapunzante en su casa por su esposo, quien luego de asesinarla se suicidó. Los cuerpos fueron encontrados por familiares. Tenían dos hijos en común.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Asfixiada</t>
+          <t>Apuñalada</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Cónyuge</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2435,7 +2380,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Cristopher Delgado Salgado</t>
+          <t>Rodrigo Saavedra Carreño</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2443,14 +2388,14 @@
           <t>Chileno</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Funcionario de Gendarmería</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Tenía antecedentes y orden de detención por amenazas a Carabineros</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2463,19 +2408,29 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Sobreseída</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Deceso</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Causa reservada</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>https://www.paislobo.cl/2022/05/mujer-fue-encontrada-sin-vida.html</t>
+          <t>https://eltipografo.cl/2022/04/ahora-femicidio-en-la-comuna-de-rengo https://eltipografo.cl/2022/04/cientos-de-personas-participaron-en-velaton-por-cinthia-vivanco-tras-femicidio</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>https://www.elrancaguino.cl/2022/04/20/primer-femicidio-regional-deja-gran-dolor-en-rengo/</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -2490,47 +2445,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>El Quisco</t>
+          <t>Osorno</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Erika Johanna Acosta</t>
+          <t>Yocelyn Lorena Monsalvez Vera</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Colombiana</t>
+          <t>Chilena</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Es apuñalada por ex conviviente, quien luego provoca un incendio donde también el femicida resulta muerto.</t>
+          <t>Asfixiada por conviviente</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Apuñalada y quemada</t>
+          <t>Asfixiada</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Ex conviviente</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2540,12 +2495,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Francisco Madariaga Seguel</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>47</t>
+          <t>Cristopher Delgado Salgado</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2555,47 +2505,37 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Tenía antecedentes y orden de detención por amenazas a Carabineros</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Vecinos y amigos reportan que había violencia de parte de ex conviviente por lo que están convencidos/as de que fue femicidio, además por la extraña forma en que llegó al lugar</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>Femicidio íntimo</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Sobreseída</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>Deceso</t>
-        </is>
-      </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Causa reservada</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>https://www.soychile.cl/san-antonio/sociedad/2022/05/03/755458/fallecida-el-quisco-sospecha-femicidio.html</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=stfd-7YJVc0</t>
+          <t>https://www.paislobo.cl/2022/05/mujer-fue-encontrada-sin-vida.html</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -2615,42 +2555,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pemuco</t>
+          <t>El Quisco</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ñuble</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>María Leonor Aguilera Mardones</t>
+          <t>Erika Johanna Acosta</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chilena</t>
+          <t>Colombiana</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Degollada en su casa por conviviente.</t>
+          <t>Es apuñalada por ex conviviente, quien luego provoca un incendio donde también el femicida resulta muerto.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Degollada</t>
+          <t>Apuñalada y quemada</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Ex conviviente</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2660,12 +2600,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Juan Guillermo Valenzuela Aguilera</t>
+          <t>Francisco Madariaga Seguel</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>47</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2675,7 +2615,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Vecinos y amigos reportan que había violencia de parte de ex conviviente por lo que están convencidos/as de que fue femicidio, además por la extraña forma en que llegó al lugar</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -2688,49 +2633,34 @@
           <t>Femicidio íntimo</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>2023-06-08</t>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Privado de libertad</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>Juzgado de Garantía de Yungay</t>
+          <t>Deceso</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>464-2022 (reservada)</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>15 años y 1 día</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>https://nubledigital.cl/2022/05/03/femicidio-en-pemuco-hombre-golpeo-en-la-cabeza-a-su-conviviente-y-le-corto-el-cuello/</t>
+          <t>https://www.soychile.cl/san-antonio/sociedad/2022/05/03/755458/fallecida-el-quisco-sospecha-femicidio.html</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>https://www.ladiscusion.cl/hasta-el-viernes-amplian-detencion-del-imputado-por-femicidio-en-pemuco/</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>https://www.elconquistadorconcepcion.cl/2023/06/08/condenan-a-15-anos-de-carcel-a-un-hombre-que-mato-a-su-conviviente-en-pemuco/</t>
+          <t>https://www.youtube.com/watch?v=stfd-7YJVc0</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
@@ -2740,42 +2670,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Melipilla</t>
+          <t>Pemuco</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Ñuble</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Maria Leidi Barriga</t>
+          <t>María Leonor Aguilera Mardones</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Boliviana</t>
+          <t>Chilena</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Apuñalada en su casa por conviviente, quien luego provoca incendio y se suicida. Vecinos reportan que llevaban dos semanas en el lugar y que ocurrían fuertes discusiones</t>
+          <t>Degollada en su casa por conviviente.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Apuñalada</t>
+          <t>Degollada</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2790,67 +2720,77 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Abraham Condori Rodríguez</t>
+          <t>Juan Guillermo Valenzuela Aguilera</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>58</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Boliviano</t>
+          <t>Chileno</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Vecinos dicen haber escuchado discusiones previamente</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>Femicidio íntimo</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Sobreseída</t>
-        </is>
-      </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Deceso</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Yungay</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>464-2022 (reservada)</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>15 años y 1 día</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>https://www.cooperativa.cl/noticias/pais/policial/femicidio/indagan-posible-femicidio-previo-a-incendio-en-melipilla-victima/2022-05-10/013551.html</t>
+          <t>https://nubledigital.cl/2022/05/03/femicidio-en-pemuco-hombre-golpeo-en-la-cabeza-a-su-conviviente-y-le-corto-el-cuello/</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>https://www.24horas.cl/nacional/vuelco-en-incendio-de-melipilla-pdi-investiga-posible-femicidio-y-posterior-suicidio-5294832</t>
+          <t>https://www.ladiscusion.cl/hasta-el-viernes-amplian-detencion-del-imputado-por-femicidio-en-pemuco/</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>https://www.elconquistadorconcepcion.cl/2023/06/08/condenan-a-15-anos-de-carcel-a-un-hombre-que-mato-a-su-conviviente-en-pemuco/</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
@@ -2860,52 +2800,72 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gorbea</t>
+          <t>Melipilla</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Araucanía</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Catalina Noemí Navarrete Segura</t>
+          <t>Maria Leidi Barriga</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chilena</t>
+          <t>Boliviana</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Desapareció el 20 de mayo y apareció muerta el 21 de mayo de 2022 en río Donguil. Autopsia de SML en junio 2022 señala signos de estrangulación y de agresión sexual. A fines de noviembre de 2022 la familia continuaba exigiendo avances en la investigación al no conocer culpable/s aún.</t>
+          <t>Apuñalada en su casa por conviviente, quien luego provoca incendio y se suicida. Vecinos reportan que llevaban dos semanas en el lugar y que ocurrían fuertes discusiones</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Asfixiada</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
+          <t>Apuñalada</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Conviviente</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Abraham Condori Rodríguez</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Boliviano</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>SE INVESTIGA</t>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Vecinos dicen haber escuchado discusiones previamente</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -2915,32 +2875,42 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Femicidio</t>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-05-09</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Deceso</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>991-2022</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>https://araucaniadiario.cl/contenido/16723/se-confirma-denuncia-de-la-familia-joven-hallada-muerta-en-gorbea-fue-asesinada https://www.chvnoticias.cl/casos-policiales/familia-pide-investigar-muerte-joven_20220530/</t>
+          <t>https://www.cooperativa.cl/noticias/pais/policial/femicidio/indagan-posible-femicidio-previo-a-incendio-en-melipilla-victima/2022-05-10/013551.html</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>https://radiouniversal.cl/familia-madre-asesinada-en-mayo-de-este-ano-en-gorbea-clama-justicia/</t>
+          <t>https://www.24horas.cl/nacional/vuelco-en-incendio-de-melipilla-pdi-investiga-posible-femicidio-y-posterior-suicidio-5294832</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
@@ -2950,27 +2920,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Iquique</t>
+          <t>Gorbea</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tarapacá</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Yuridia Pizarro Torres</t>
+          <t>Catalina Noemí Navarrete Segura</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2978,64 +2948,24 @@
           <t>Chilena</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Dueña de panadería</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Mujer trans, dirigenta y bailarina de agrupación de bailes religiosos de San Lorenzo, es agredida en su domicilio por su pareja, Jhonatan, y Néstor Cuellar, quien los acompañaba. Tras el hecho, ocultaron el cuerpo en sitio eriazo, con la ayuda de Alexander. Es posteriormente encontrada semienterrada.  Johnatan fue condenado por femicidio, Néstor por homicidio simple y Alexander, acusado de encubridor, fue absuelto.</t>
+          <t>Desapareció el 20 de mayo y apareció muerta el 21 de mayo de 2022 en río Donguil. Autopsia de SML en junio 2022 señala signos de estrangulación y de agresión sexual. A fines de noviembre de 2022 la familia continuaba exigiendo avances en la investigación al no conocer culpable/s aún.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Golpeada; Asfixiada</t>
+          <t>Asfixiada</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Se presume</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Conviviente; Conocido; Conocido</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Johnatan Stiven Cañón Rodríguez; Néstor Julián Cuéllar Rodríguez; Luis Alexander Ballesteros Torres (complice)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>22; 29; 41</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Colombiano; Colombiano; Colombiano</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Sin Oficio; Mariscador; Conductor de bus</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>SE INVESTIGA</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -3048,54 +2978,29 @@
           <t>Femicidio</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Homicidio simple</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>Concluida</t>
-        </is>
-      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>Privado de libertad; Privado de libertad; Absuelto</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>Juzgado de Garantía de Iquique</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2356-2022</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>Presidio perpetuo simple; 8 años; Absuelto</t>
+          <t>991-2022</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>https://www.cooperativa.cl/noticias/pais/region-de-tarapaca/iquique-persona-desaparecida-fue-hallada-muerta/2022-06-02/173153.html</t>
+          <t>https://araucaniadiario.cl/contenido/16723/se-confirma-denuncia-de-la-familia-joven-hallada-muerta-en-gorbea-fue-asesinada https://www.chvnoticias.cl/casos-policiales/familia-pide-investigar-muerte-joven_20220530/</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>https://puranoticia.pnt.cl/regiones/condenan-a-presidio-perpetuo-simple-a-colombiano-por-femicidio-en-iquique</t>
+          <t>https://radiouniversal.cl/familia-madre-asesinada-en-mayo-de-este-ano-en-gorbea-clama-justicia/</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -3105,27 +3010,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Puerto Saavedra</t>
+          <t>Iquique</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Araucanía</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Irma del Carmen Curiñanco Carrera</t>
+          <t>Yuridia Pizarro Torres</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3133,19 +3038,29 @@
           <t>Chilena</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Dueña de panadería</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Apuñalada por ex pareja, quien luego se entrega a la policía. En Puerto Domínguez</t>
+          <t>Mujer trans, dirigenta y bailarina de agrupación de bailes religiosos de San Lorenzo, es agredida en su domicilio por su pareja, Jhonatan, y Néstor Cuellar, quien los acompañaba. Tras el hecho, ocultaron el cuerpo en sitio eriazo, con la ayuda de Alexander. Es posteriormente encontrada semienterrada.  Johnatan fue condenado por femicidio, Néstor por homicidio simple y Alexander, acusado de encubridor, fue absuelto.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Apuñalada</t>
+          <t>Golpeada; Asfixiada</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Se presume</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Ex conviviente</t>
+          <t>Conviviente; Conocido; Conocido</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3155,17 +3070,22 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Iván Demecio Salgado Lagos</t>
+          <t>Johnatan Stiven Cañón Rodríguez; Néstor Julián Cuéllar Rodríguez; Luis Alexander Ballesteros Torres (complice)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22; 29; 41</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Chileno</t>
+          <t>Colombiano; Colombiano; Colombiano</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Sin Oficio; Mariscador; Conductor de bus</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3175,67 +3095,67 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>El femicida tenía prohibición de acercarse a Irma, medida que venció el 11 de abril de 2022.</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Homicidio simple</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Suspendida</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Privado de libertad</t>
+          <t>Privado de libertad; Privado de libertad; Absuelto</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Carahue</t>
+          <t>Juzgado de Garantía de Iquique</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>506-2022</t>
+          <t>2356-2022</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple; 8 años; Absuelto</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/story.php?story_fbid=pfbid0ngBE7fYpEqZPqTxt3WK9E1cJaW58bqQwfQknExcjNDvyXcFds76ycswqd7y8ogRTl&amp;id=111112963655007</t>
+          <t>https://www.cooperativa.cl/noticias/pais/region-de-tarapaca/iquique-persona-desaparecida-fue-hallada-muerta/2022-06-02/173153.html</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>https://elconquistadortemucofm.cl/2022/06/07/femicidio-en-la-araucania-irma-curinanco-de-29-anos-fue-asesinada-por-su-expareja/</t>
+          <t>https://puranoticia.pnt.cl/regiones/condenan-a-presidio-perpetuo-simple-a-colombiano-por-femicidio-en-iquique</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2023-05-20</t>
         </is>
       </c>
     </row>
@@ -3245,27 +3165,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Puerto Saavedra</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kassandra Andrea Rocha Ruminot</t>
+          <t>Irma del Carmen Curiñanco Carrera</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3275,112 +3195,107 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Envenenada (drogada) y golpeada por conviviente el 4 de junio de 2022, quien ya había sido denunciado anteriormente. Ingresa en malas condiciones a hospital en Coquimbo y es trasladada a Clínica Las Condes, donde fallece el 8 de junio. Fiscalía ordenó diligencias y es investigado como femicidio frustrado. Familia y activistas exigen justicia.</t>
+          <t>Apuñalada por ex pareja, quien luego se entrega a la policía. En Puerto Domínguez</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Envenenada, Golpeada</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+          <t>Apuñalada</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Ex conviviente</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Iván Demecio Salgado Lagos</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Conviviente</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>El femicida tenía prohibición de acercarse a Irma, medida que venció el 11 de abril de 2022.</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
         <is>
           <t>Femicidio íntimo</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Javier Alejandro Zurita Maldonado</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Chileno</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Tenía causa anterior por lesiones en contexto VIF, en la que fue absuelto el día 2 de junio de 2021 y las medidas cautelares dejadas sin efecto (RIT 2634-2021 de Juzgado de Garantía de Coquimbo)</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Femicidio frustrado</t>
-        </is>
-      </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Suspendida</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Coquimbo</t>
+          <t>Juzgado de Garantía de Carahue</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>506-2022</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>https://www.eldinamo.cl/pais/Ex-pareja-tenia-orden-de-alejamiento-investigan-muerte-de-joven-madre-en-Coquimbo-20220609-0030.html</t>
+          <t>https://m.facebook.com/story.php?story_fbid=pfbid0ngBE7fYpEqZPqTxt3WK9E1cJaW58bqQwfQknExcjNDvyXcFds76ycswqd7y8ogRTl&amp;id=111112963655007</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/Cei84CMO6Ep/?igshid=YmMyMTA2M2Y%3D</t>
+          <t>https://elconquistadortemucofm.cl/2022/06/07/femicidio-en-la-araucania-irma-curinanco-de-29-anos-fue-asesinada-por-su-expareja/</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -3390,27 +3305,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rio Negro</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pamela Soledad Carrillo Carrasco</t>
+          <t>Kassandra Andrea Rocha Ruminot</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3420,22 +3335,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Pamela acude al hospital con múltiples heridas en su cuerpo a las 19:40 horas. A eso de las 20:00 se produjo su deceso. Tenían tres hijos en común</t>
+          <t>Envenenada (drogada) y golpeada por conviviente el 4 de junio de 2022, quien ya había sido denunciado anteriormente. Ingresa en malas condiciones a hospital en Coquimbo y es trasladada a Clínica Las Condes, donde fallece el 8 de junio. Fiscalía ordenó diligencias y es investigado como femicidio frustrado. Familia y activistas exigen justicia.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Apuñalada</t>
+          <t>Envenenada, Golpeada</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Ex conviviente</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3445,12 +3360,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Víctor Hugo Guerrero Millán</t>
+          <t>Javier Alejandro Zurita Maldonado</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>28</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3465,72 +3380,67 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Tenía causa anterior por lesiones en contexto VIF, en la que fue absuelto el día 2 de junio de 2021 y las medidas cautelares dejadas sin efecto (RIT 2634-2021 de Juzgado de Garantía de Coquimbo)</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>En 2019 Pamela había denunciado lesiones en contexto de VIF, la causa fue terminada en procedimiento simplificado con disculpas de parte del agresor</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Femicidio frustrado</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Sobreseída</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Prisión Preventiva</t>
+          <t>Libre</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Río Negro</t>
+          <t>Juzgado de Garantía de Coquimbo</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>723-2022</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>Se suicida el 18 de julio del 2022 en el Complejo Penitenciario Alto Bonito de Puerto Montt</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>https://www.chvnoticias.cl/casos-policiales/femicidio-rio-negro-mujer-hospital-multiples-heridas_20220701/</t>
+          <t>https://www.eldinamo.cl/pais/Ex-pareja-tenia-orden-de-alejamiento-investigan-muerte-de-joven-madre-en-Coquimbo-20220609-0030.html</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>https://www.radiosago.cl/formalizan-por-femicidio-frustrado-a-sujeto-que-mato-a-su-expareja-en-la-comuna-de-rio-negro/</t>
+          <t>https://www.instagram.com/p/Cei84CMO6Ep/?igshid=YmMyMTA2M2Y%3D</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
@@ -3540,27 +3450,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Quilpué</t>
+          <t>Rio Negro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jeannette Lourdes Medina Álvarez</t>
+          <t>Pamela Soledad Carrillo Carrasco</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3570,17 +3480,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Es encontrada en cercanías de un local que frecuentaban con el agresor. En su cuerpo tiene heridas en forma de runas. El agresor, al ser detenido, presenta marcas en los nudillos por golpes efectuados y marcas de runas en sus brazos. Hijo, patrocinado por Sernameg, presenta querella por femicidio. No obstante, la causa está caratulada como homicidio</t>
+          <t>Pamela acude al hospital con múltiples heridas en su cuerpo a las 19:40 horas. A eso de las 20:00 se produjo su deceso. Tenían tres hijos en común</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Asfixiada</t>
+          <t>Apuñalada</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Se presume</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3595,12 +3505,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Alexis Giovanni Barrios Aedo</t>
+          <t>Víctor Hugo Guerrero Millán</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>56</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3615,12 +3525,17 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>En 2019 Pamela había denunciado lesiones en contexto de VIF, la causa fue terminada en procedimiento simplificado con disculpas de parte del agresor</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -3630,47 +3545,52 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Homicidio</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Suspendida</t>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Prisión Preventiva</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Quilpué</t>
+          <t>Juzgado de Garantía de Río Negro</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2011-2022</t>
+          <t>723-2022</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Se suicida el 18 de julio del 2022 en el Complejo Penitenciario Alto Bonito de Puerto Montt</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>https://www.observador.cl/quilpue-piden-rotular-como-femicidio-la-muerte-de-jeanette-medina/</t>
+          <t>https://www.chvnoticias.cl/casos-policiales/femicidio-rio-negro-mujer-hospital-multiples-heridas_20220701/</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/07/08/prision-preventiva-para-acusado-de-homicidio-de-mujer-hallada-muerta-en-via-publica-en-quilpue.shtml</t>
+          <t>https://www.radiosago.cl/formalizan-por-femicidio-frustrado-a-sujeto-que-mato-a-su-expareja-en-la-comuna-de-rio-negro/</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3600,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>Quilpué</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3695,12 +3615,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sandra Cecilia Jorquera Guerrero</t>
+          <t>Jeannette Lourdes Medina Álvarez</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3710,22 +3630,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Hija encuentra a madre muerta en dormitorio matrimonial. Tras tres meses de investigación, se recalifica el crimen como femicidio</t>
+          <t>Es encontrada en cercanías de un local que frecuentaban con el agresor. En su cuerpo tiene heridas en forma de runas. El agresor, al ser detenido, presenta marcas en los nudillos por golpes efectuados y marcas de runas en sus brazos. Hijo, patrocinado por Sernameg, presenta querella por femicidio. No obstante, la causa está caratulada como homicidio</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Golpeada, Asfixiada</t>
+          <t>Asfixiada</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Se presume</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pareja</t>
+          <t>Ex conviviente</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3735,12 +3655,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Stephano Alexander Cortéz Salcedo</t>
+          <t>Alexis Giovanni Barrios Aedo</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3758,6 +3678,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -3765,47 +3690,47 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Femicidio no íntimo</t>
+          <t>Homicidio</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Suspendida</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Prisión Preventiva</t>
+          <t>Libre</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de San Felipe</t>
+          <t>Juzgado de Garantía de Quilpué</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>2011-2022</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>https://misanfelipe.cl/2022/07/13/encuentran-fallecida-a-mujer-de-56-anos-en-villa-curimon/</t>
+          <t>https://www.observador.cl/quilpue-piden-rotular-como-femicidio-la-muerte-de-jeanette-medina/</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>https://g5noticias.cl/2022/11/29/prision-preventiva-para-imputado-por-femicidio-en-san-felipe/</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/07/08/prision-preventiva-para-acusado-de-homicidio-de-mujer-hallada-muerta-en-via-publica-en-quilpue.shtml</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -3815,52 +3740,52 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Roxana Burgos</t>
+          <t>Sandra Cecilia Jorquera Guerrero</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Venezolana</t>
+          <t>Chilena</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Joven llevaba 4 días desaparecida y vecinas/os la encuentran en su habitación, envuelta en mantas bajo la cama. Compartía domicilio con su pareja, quien desapareció con el hijo que tenían en común. A la fecha, el agresor sigue prófugo</t>
+          <t>Hija encuentra a madre muerta en dormitorio matrimonial. Tras tres meses de investigación, se recalifica el crimen como femicidio</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Asfixiada</t>
+          <t>Golpeada, Asfixiada</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Se presume</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Pareja</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3870,17 +3795,17 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+          <t>Stephano Alexander Cortéz Salcedo</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Venezolano</t>
+          <t>Chileno</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -3893,24 +3818,14 @@
           <t>No</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Residentes del lugar aseguran que Roxana era víctima de violencia en su relación y que, incluso, se había defendido</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Femicidio no íntimo</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3920,17 +3835,17 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Prófugo</t>
+          <t>Prisión Preventiva</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Quilpué</t>
+          <t>Juzgado de Garantía de San Felipe</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -3940,7 +3855,12 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>https://elpitazo.net/migracion/adolescente-venezolana-es-asesinada-en-chile-su-pareja-es-el-principal-sospechoso/</t>
+          <t>https://misanfelipe.cl/2022/07/13/encuentran-fallecida-a-mujer-de-56-anos-en-villa-curimon/</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>https://g5noticias.cl/2022/11/29/prision-preventiva-para-imputado-por-femicidio-en-san-felipe/</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -3955,52 +3875,52 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pichidegua</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Juana de las Mercedes Leiva Pozo</t>
+          <t>Roxana Burgos</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chilena</t>
+          <t>Venezolana</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Carabineros recibe llamado telefónico para informar la muerte de dos personas. En el lugar, personal policial confirma que Juana fue atacada con un arma blanca por su ex pareja, quien también estaba en el lugar con riesgo vital. El agresor es trasladado al servicio de salud y luego formalizado</t>
+          <t>Joven llevaba 4 días desaparecida y vecinas/os la encuentran en su habitación, envuelta en mantas bajo la cama. Compartía domicilio con su pareja, quien desapareció con el hijo que tenían en común. A la fecha, el agresor sigue prófugo</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Apuñalada</t>
+          <t>Asfixiada</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Se presume</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Ex pareja</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -4015,7 +3935,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Venezolano</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -4028,6 +3953,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Residentes del lugar aseguran que Roxana era víctima de violencia en su relación y que, incluso, se había defendido</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
           <t>No</t>
@@ -4035,7 +3965,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -4050,17 +3980,17 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Prisión Preventiva</t>
+          <t>Prófugo</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de San Vicente de Tagua Tagua</t>
+          <t>Juzgado de Garantía de Quilpué</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -4070,12 +4000,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>https://www.meganoticias.cl/nacional/384095-pdi-investiga-femicidio-mujer-pichidegua-23-07-2022.html    https://www.elrancaguino.cl/2022/07/26/prision-preventiva-para-acusado-de-femicidio/</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>https://www.elrancaguino.cl/2022/07/26/prision-preventiva-para-acusado-de-femicidio/</t>
+          <t>https://elpitazo.net/migracion/adolescente-venezolana-es-asesinada-en-chile-su-pareja-es-el-principal-sospechoso/</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
@@ -4090,27 +4015,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>El Bosque</t>
+          <t>Pichidegua</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jéssica del Carmen Parra Sepúlveda</t>
+          <t>Juana de las Mercedes Leiva Pozo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4120,12 +4045,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Carabineros acude a procedimiento por incendio en una vivienda. En el interior, se encontraron los cuerpos sin vida de Jéssica y de su hija Valentina Mora Parra. Testigos aseguran que el agresor la había amenazado horas antes del siniestro</t>
+          <t>Carabineros recibe llamado telefónico para informar la muerte de dos personas. En el lugar, personal policial confirma que Juana fue atacada con un arma blanca por su ex pareja, quien también estaba en el lugar con riesgo vital. El agresor es trasladado al servicio de salud y luego formalizado</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Quemada</t>
+          <t>Apuñalada</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4145,17 +4070,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Luis Antonio Zorondo Ramos</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Chileno</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -4183,11 +4103,6 @@
           <t>Femicidio íntimo</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Incendio con resultado de muerte o lesiones</t>
-        </is>
-      </c>
       <c r="Y29" t="inlineStr">
         <is>
           <t>En curso</t>
@@ -4195,7 +4110,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4205,17 +4120,22 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11º Juzgado de Garantía de Santiago</t>
+          <t>Juzgado de Garantía de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>3667-2022</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>https://www.sernameg.gob.cl/wp-content/uploads/2022/07/FEMICIDIOS-2022_al27072022.pdf                                                          https://www.publimetro.cl/noticias/2022/07/23/investigan-presunto-femicidio-dos-mujeres-fallecieron-tras-incendio-en-su-propio-domicilio/</t>
+          <t>https://www.meganoticias.cl/nacional/384095-pdi-investiga-femicidio-mujer-pichidegua-23-07-2022.html    https://www.elrancaguino.cl/2022/07/26/prision-preventiva-para-acusado-de-femicidio/</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>https://www.elrancaguino.cl/2022/07/26/prision-preventiva-para-acusado-de-femicidio/</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
@@ -4245,12 +4165,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Valentina Ninoska Mora Parra</t>
+          <t>Jéssica del Carmen Parra Sepúlveda</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4260,7 +4180,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Carabineros acude a procedimiento por incendio en una vivienda. En el interior, se encuentra el cuerpo de Valentina y su madre Jessica Parra Sepulveda. Pese a que Valentina también se opuso a ingreso del agresor, Ministerio Público formaliza por homicidio calificado y no utiliza figura de femicidio más agravantes de Ley Gabriela. Lo mismo hace Sernameg en su querella.</t>
+          <t>Carabineros acude a procedimiento por incendio en una vivienda. En el interior, se encontraron los cuerpos sin vida de Jéssica y de su hija Valentina Mora Parra. Testigos aseguran que el agresor la había amenazado horas antes del siniestro</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4275,12 +4195,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Ex pareja de su madre</t>
+          <t>Ex pareja</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Femicidio íntimo familiar</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4315,12 +4235,12 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Homicidio calificado</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -4370,27 +4290,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yerbas Buenas</t>
+          <t>El Bosque</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>El Maule</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Andrea Cristina Salazar Placencia</t>
+          <t>Valentina Ninoska Mora Parra</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4400,12 +4320,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Conviviente la apuñala, vecinos llaman a Carabineros. Llega a urgencias herida y posteriormente fallece. Hijo presenta querella con Sernameg. El femicida es asesinado en la cárcel el 29-08-2022</t>
+          <t>Carabineros acude a procedimiento por incendio en una vivienda. En el interior, se encuentra el cuerpo de Valentina y su madre Jessica Parra Sepulveda. Pese a que Valentina también se opuso a ingreso del agresor, Ministerio Público formaliza por homicidio calificado y no utiliza figura de femicidio más agravantes de Ley Gabriela. Lo mismo hace Sernameg en su querella.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Apuñalada</t>
+          <t>Quemada</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4415,22 +4335,22 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Ex conviviente</t>
+          <t>Ex pareja de su madre</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Femicidio íntimo familiar</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Claudio Segundo Aedo Salvo</t>
+          <t>Luis Antonio Zorondo Ramos</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>47</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4448,64 +4368,54 @@
           <t>No</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>El agresor habia ingresado dos días antes a su casa sin autorización, para insultarla y amenazarla de muerte</t>
-        </is>
-      </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Homicidio calificado</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Violación de morada, Lesiones leves</t>
+          <t>Incendio con resultado de muerte o lesiones</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Sobreseída</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Deceso</t>
+          <t>Prisión Preventiva</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Linares</t>
+          <t>11º Juzgado de Garantía de Santiago</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2479-2022</t>
+          <t>3667-2022</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>https://diariolinares.cl/impacto-por-primer-caso-de-femicidio-en-el-maule-del-2022/</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>https://www.septimapaginanoticias.cl/conmocion-en-yerbas-buenas-por-caso-de-femicidio</t>
+          <t>https://www.sernameg.gob.cl/wp-content/uploads/2022/07/FEMICIDIOS-2022_al27072022.pdf                                                          https://www.publimetro.cl/noticias/2022/07/23/investigan-presunto-femicidio-dos-mujeres-fallecieron-tras-incendio-en-su-propio-domicilio/</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
@@ -4520,32 +4430,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Iquique</t>
+          <t>Yerbas Buenas</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tarapacá</t>
+          <t>El Maule</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Simeona Loayza</t>
+          <t>Andrea Cristina Salazar Placencia</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>37</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Boliviana</t>
+          <t>Chilena</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Fallece el 28 de julio de 2022 luego de haber sido apuñalada 15 veces el 3 de marzo por su pololo. El agresor fue formalizado por femicidio frustrado y reformalizado tras la muerte de Simeona</t>
+          <t>Conviviente la apuñala, vecinos llaman a Carabineros. Llega a urgencias herida y posteriormente fallece. Hijo presenta querella con Sernameg. El femicida es asesinado en la cárcel el 29-08-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4560,7 +4475,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pareja</t>
+          <t>Ex conviviente</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -4570,7 +4485,17 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>J.G.M.Q. (MEDIOS PROTEGEN SU IDENTIDAD)</t>
+          <t>Claudio Segundo Aedo Salvo</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Chileno</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -4583,9 +4508,19 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>El agresor habia ingresado dos días antes a su casa sin autorización, para insultarla y amenazarla de muerte</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -4593,34 +4528,44 @@
           <t>Femicidio íntimo</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Violación de morada, Lesiones leves</t>
+        </is>
+      </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Deceso</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Iquique</t>
+          <t>Juzgado de Garantía de Linares</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>2479-2022</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>https://www.soychile.cl/iquique/policial/2022/07/28/768681/mujer-murio-apunalada.html</t>
+          <t>https://diariolinares.cl/impacto-por-primer-caso-de-femicidio-en-el-maule-del-2022/</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>https://www.elboyaldia.cl/noticia/sociedad/registran-nuevo-femicidio-en-iquique-mujer-murio-tras-recibir-15-apunaladas-de-su-p</t>
+          <t>https://www.septimapaginanoticias.cl/conmocion-en-yerbas-buenas-por-caso-de-femicidio</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
@@ -4635,42 +4580,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-08-03</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Iquique</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ignacia Palma</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>26</t>
+          <t>Simeona Loayza</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chilena</t>
+          <t>Boliviana</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Mujer trans en situación de calle. Fue apuñalada y quemada dentro de su carpa, junto a la vía férrea, mientras se encontraba durmiendo. Bomberos la encuentra aún con signos vitales y es trasladada a Hospital Van Buren, donde fallece. Municipio de Valparaíso presenta querella por homicidio calificado</t>
+          <t>Fallece el 28 de julio de 2022 luego de haber sido apuñalada 15 veces el 3 de marzo por su pololo. El agresor fue formalizado por femicidio frustrado y reformalizado tras la muerte de Simeona</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Apuñalada, Quemada</t>
+          <t>Apuñalada</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4680,27 +4620,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Pareja</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Transfemicidio</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>José Ferreira Iguarán</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Venezolano</t>
+          <t>J.G.M.Q. (MEDIOS PROTEGEN SU IDENTIDAD)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -4720,27 +4650,22 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Homicidio calificado</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Concluida</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>Privado de libertad</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>Tribunal de Juicio Oral en lo Penal de Valparaíso</t>
+          <t>Juzgado de Garantía de Iquique</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -4748,29 +4673,19 @@
           <t>No encontrada</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>20 años de presidio mayor en su grado máximo</t>
-        </is>
-      </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>https://www.cooperativa.cl/noticias/sociedad/minorias-sexuales/movilh-denuncia-brutal-crimen-en-valparaiso-asesinaron-y-quemaron-a-una/2022-08-03/130603.html?utm_term=Autofeed&amp;utm_medium=Social&amp;utm_source=Facebook</t>
+          <t>https://www.soychile.cl/iquique/policial/2022/07/28/768681/mujer-murio-apunalada.html</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/08/10/prision-preventiva-para-acusado-de-incendio-que-causo-la-muerte-de-mujer-trans-en-valparaiso.shtml</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>https://laregionhoy.cl/2023/09/04/fiscalia-de-valparaiso-logra-sentencia-de-20-anos-contra-autor-del-homicidio-de-ignacia-palma/</t>
+          <t>https://www.elboyaldia.cl/noticia/sociedad/registran-nuevo-femicidio-en-iquique-mujer-murio-tras-recibir-15-apunaladas-de-su-p</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
@@ -4780,22 +4695,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lo Espejo</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Marjorie Johanna Palma Celedón</t>
+          <t>Ignacia Palma</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4810,12 +4725,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Conviviente se entrega por haberla asfixiado. Había una historia de violencia y separación anterior, e incluso una cautelar a favor de Marjorie que no fue cumplida</t>
+          <t>Mujer trans en situación de calle. Fue apuñalada y quemada dentro de su carpa, junto a la vía férrea, mientras se encontraba durmiendo. Bomberos la encuentra aún con signos vitales y es trasladada a Hospital Van Buren, donde fallece. Municipio de Valparaíso presenta querella por homicidio calificado</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Asfixiada</t>
+          <t>Apuñalada, Quemada</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4825,27 +4740,27 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Transfemicidio</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>David Fernando Valenzuela Reyes</t>
+          <t>José Ferreira Iguarán</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Chileno</t>
+          <t>Venezolano</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -4855,62 +4770,67 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>En julio el 10º Juzgado de Garantía de Santiago había aprobado decisión de no investigar del Ministerio Público por denuncia de maltrato habitual</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Cautelares</t>
+          <t>No</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Homicidio calificado</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10º Juzgado de Garantía de Santiago</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Valparaíso</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>1878-2022</t>
+          <t>No encontrada</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>20 años de presidio mayor en su grado máximo</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/bastacontralaviolenciadegenero/posts/5534155516627748</t>
+          <t>https://www.cooperativa.cl/noticias/sociedad/minorias-sexuales/movilh-denuncia-brutal-crimen-en-valparaiso-asesinaron-y-quemaron-a-una/2022-08-03/130603.html?utm_term=Autofeed&amp;utm_medium=Social&amp;utm_source=Facebook</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/08/10/prision-preventiva-para-acusado-de-incendio-que-causo-la-muerte-de-mujer-trans-en-valparaiso.shtml</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>https://laregionhoy.cl/2023/09/04/fiscalia-de-valparaiso-logra-sentencia-de-20-anos-contra-autor-del-homicidio-de-ignacia-palma/</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -4920,27 +4840,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>Lo Espejo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ñuble</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>María Inés Sepúlveda Matus</t>
+          <t>Marjorie Johanna Palma Celedón</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -4950,32 +4870,37 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Víctima es encontrada muerta en incendio. Luego de unos días se descubre que María Inés murió degollada y que había un celular de un vecino, quedando restos de su ropa en el cerco al escapar. Formalizado por homicidio e incendio, a la fecha no hay indicios que se haya indagado en posible agresión sexual. Días después surgen nuevos antecedentes: el sujeto tenía un desacato a cautelar de prohibición de acercase a su ex conviviente, vecina de María Inés. Dado que el móvil no fue el robo, y por la forma en que es hallado el cadáver, e incluso por haber matado con el incendio a la perrita de María Inés, es claro el móvil femicida según Ley Gabriela. Familia de María Inés presenta querella por homicidio calificado y crueldad animal</t>
+          <t>Conviviente se entrega por haberla asfixiado. Había una historia de violencia y separación anterior, e incluso una cautelar a favor de Marjorie que no fue cumplida</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Degollada</t>
+          <t>Asfixiada</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Ex vecino</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Femicidio no íntimo</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Héctor Patricio Morales Morales</t>
+          <t>David Fernando Valenzuela Reyes</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>26</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4990,72 +4915,62 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>En julio el 10º Juzgado de Garantía de Santiago había aprobado decisión de no investigar del Ministerio Público por denuncia de maltrato habitual</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Cautelares</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Homicidio simple</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Incendio</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Concluida</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Privado de libertad</t>
+          <t>Prisión preventiva</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>Tribunal de Juicio Oral en lo Penal de Chillán</t>
+          <t>10º Juzgado de Garantía de Santiago</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>188-2023 (reservada)</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>15 años de presidio</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>13 años de presidio</t>
+          <t>1878-2022</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>https://www.soychile.cl/chillan/policial/2022/08/18/771931/logran-prision-preventiva-homicida-incendio.html</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>https://www.msn.com/es-cl/noticias/chile/detienen-a-vecino-de-mujer-que-fue-hallada-muerta-tras-incendio-de-su-casa-en-pinto-habr%C3%ADa-sido-asesinada-previamente/ar-AA10EZux?ocid=iehp&amp;getstaticpage=true&amp;automatedTracking=staticview&amp;parent-title=maura-rivera-mostr%C3%B3-el-parecido-con-su-hija-luciana-de-dos-a%C3%B1os&amp;parent-ns=ar&amp;parent-content-id=BBzuSbM</t>
+          <t>https://www.facebook.com/bastacontralaviolenciadegenero/posts/5534155516627748</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
@@ -5065,27 +4980,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-09-01</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Futrono</t>
+          <t>Pinto</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Los Ríos</t>
+          <t>Ñuble</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Franshesca Soledad Flores Raillanca</t>
+          <t>María Inés Sepúlveda Matus</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -5095,37 +5010,32 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Apuñalada por pareja, la víctima es encontrada por hijo adolescente. Femicida, quien es Carabinero, es detenido. Mujer había dado a luz hace 10 días a un hijo, con quien fue encontrada. Femicida presentaba lesiones claras de defensa de parte de la víctima al momento de detención (escoriaciones múltiples y herida en los labios)</t>
+          <t>Víctima es encontrada muerta en incendio. Luego de unos días se descubre que María Inés murió degollada y que había un celular de un vecino, quedando restos de su ropa en el cerco al escapar. Formalizado por homicidio e incendio, a la fecha no hay indicios que se haya indagado en posible agresión sexual. Días después surgen nuevos antecedentes: el sujeto tenía un desacato a cautelar de prohibición de acercase a su ex conviviente, vecina de María Inés. Dado que el móvil no fue el robo, y por la forma en que es hallado el cadáver, e incluso por haber matado con el incendio a la perrita de María Inés, es claro el móvil femicida según Ley Gabriela. Familia de María Inés presenta querella por homicidio calificado y crueldad animal</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Apuñalada</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Degollada</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Ex conviviente</t>
+          <t>Ex vecino</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Femicidio no íntimo</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Emanuel Alejandro Burgos Mackay</t>
+          <t>Héctor Patricio Morales Morales</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>42</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -5133,11 +5043,6 @@
           <t>Chileno</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Carabinero</t>
-        </is>
-      </c>
       <c r="R36" t="inlineStr">
         <is>
           <t>No</t>
@@ -5150,12 +5055,17 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Homicidio simple</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Incendio</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -5165,7 +5075,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -5175,32 +5085,37 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>Tribunal Juicio Oral en lo Penal de Valvidia</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Chillán</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>1026-2022</t>
+          <t>188-2023 (reservada)</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>Presidio perpetuo</t>
+          <t>15 años de presidio</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>13 años de presidio</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-rios/2022/09/02/detienen-a-hombre-por-femicidio-en-futrono-cuerpo-fue-hallado-por-hijo-menor-de-edad-de-la-victima.shtml</t>
+          <t>https://www.soychile.cl/chillan/policial/2022/08/18/771931/logran-prision-preventiva-homicida-incendio.html</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>https://www.diariodevaldivia.cl/noticia/actualidad/2022/09/fiscalia-confirma-femicidio-en-futrono-victima-tenia-40-anos</t>
+          <t>https://www.msn.com/es-cl/noticias/chile/detienen-a-vecino-de-mujer-que-fue-hallada-muerta-tras-incendio-de-su-casa-en-pinto-habr%C3%ADa-sido-asesinada-previamente/ar-AA10EZux?ocid=iehp&amp;getstaticpage=true&amp;automatedTracking=staticview&amp;parent-title=maura-rivera-mostr%C3%B3-el-parecido-con-su-hija-luciana-de-dos-a%C3%B1os&amp;parent-ns=ar&amp;parent-content-id=BBzuSbM</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -5210,27 +5125,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Quinchao</t>
+          <t>Futrono</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Faumelisa del Carmen Chiguay Millaquien</t>
+          <t>Franshesca Soledad Flores Raillanca</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -5240,12 +5155,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Encontrada muerta en Isla Caguach, luego de que su cónyuge le provocara diversas lesiones con una varilla. El agresor es encontrado en el inmueble junto a la víctima</t>
+          <t>Apuñalada por pareja, la víctima es encontrada por hijo adolescente. Femicida, quien es Carabinero, es detenido. Mujer había dado a luz hace 10 días a un hijo, con quien fue encontrada. Femicida presentaba lesiones claras de defensa de parte de la víctima al momento de detención (escoriaciones múltiples y herida en los labios)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Golpeada</t>
+          <t>Apuñalada</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -5255,7 +5170,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Cónyuge</t>
+          <t>Ex conviviente</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -5265,12 +5180,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Juan Andrés Levin Vargas</t>
+          <t>Emanuel Alejandro Burgos Mackay</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5278,6 +5193,11 @@
           <t>Chileno</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Carabinero</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
           <t>No</t>
@@ -5285,7 +5205,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -5300,37 +5220,42 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Quinchao</t>
+          <t>Tribunal Juicio Oral en lo Penal de Valvidia</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>1026-2022</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>https://www.diariodepuertomontt.cl/noticia/actualidad/2022/09/femicidio-en-isla-caguach-comuna-de-quinchao</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-rios/2022/09/02/detienen-a-hombre-por-femicidio-en-futrono-cuerpo-fue-hallado-por-hijo-menor-de-edad-de-la-victima.shtml</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>https://www.soychile.cl/chiloe/policial/2022/09/08/775513/caguach-femicidio-prision-preventiva.html</t>
+          <t>https://www.diariodevaldivia.cl/noticia/actualidad/2022/09/fiscalia-confirma-femicidio-en-futrono-victima-tenia-40-anos</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -5345,27 +5270,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Quillota</t>
+          <t>Quinchao</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nayaret Constanza Cisternas Latin</t>
+          <t>Faumelisa del Carmen Chiguay Millaquien</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -5373,19 +5298,14 @@
           <t>Chilena</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Peluquera</t>
-        </is>
-      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Envenenada con productos de trabajo, fallece en atención de urgencia. Principal sospechoso es su conviviente, quien tenía antecedentes de violencia en su contra con anterioridad, y no prestó ayuda a Nayaret a pesar de estar presente cuando se intoxicó. Además, Nayaret envió audio pidiendo auxillio a su familia. Su circulo cercano afirma que se trataría de un femicidio</t>
+          <t>Encontrada muerta en Isla Caguach, luego de que su cónyuge le provocara diversas lesiones con una varilla. El agresor es encontrado en el inmueble junto a la víctima</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Envenenada</t>
+          <t>Golpeada</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5395,7 +5315,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Cónyuge</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -5405,7 +5325,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Diego Manuel Calderón Henríquez</t>
+          <t>Juan Andrés Levin Vargas</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5420,67 +5345,57 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Nayaret denunció a Calderón dos veces por maltrato</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>No judicializado</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Impune</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Prisión preventiva</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Quillota</t>
+          <t>Juzgado de Garantía de Quinchao</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2470-2022</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>https://www.observador.cl/quillota-realizan-velaton-por-peluquera-que-fallecio-en-extranas-circunstancias/</t>
+          <t>https://www.diariodepuertomontt.cl/noticia/actualidad/2022/09/femicidio-en-isla-caguach-comuna-de-quinchao</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>https://radiohumedales.org/naya-no-se-suicido/</t>
+          <t>https://www.soychile.cl/chiloe/policial/2022/09/08/775513/caguach-femicidio-prision-preventiva.html</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-08</t>
         </is>
       </c>
     </row>
@@ -5490,27 +5405,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rancagua</t>
+          <t>Quillota</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Verónica Vanessa Díaz Vega</t>
+          <t>Nayaret Constanza Cisternas Latin</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -5518,94 +5433,109 @@
           <t>Chilena</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Peluquera</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Encontrada muerta en canal de regadío en Rancagua por personal de Carabineros. Tras diligencias de SML, su conviviente es detenenido</t>
+          <t>Envenenada con productos de trabajo, fallece en atención de urgencia. Principal sospechoso es su conviviente, quien tenía antecedentes de violencia en su contra con anterioridad, y no prestó ayuda a Nayaret a pesar de estar presente cuando se intoxicó. Además, Nayaret envió audio pidiendo auxillio a su familia. Su circulo cercano afirma que se trataría de un femicidio</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Estrangulada</t>
+          <t>Envenenada</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Conviviente</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Diego Manuel Calderón Henríquez</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Nayaret denunció a Calderón dos veces por maltrato</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Conviviente</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Álex Ovando Chacón</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Chileno</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Femicidio y violación</t>
+          <t>No judicializado</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Impune</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Libre</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Rancagua</t>
+          <t>Juzgado de Garantía de Quillota</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>2470-2022</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-ohiggins/2022/09/29/encontraron-cuerpo-en-canal-de-regadio-acusado-de-violar-y-matar-a-su-pareja-a-prision-preventiva.shtml</t>
+          <t>https://www.observador.cl/quillota-realizan-velaton-por-peluquera-que-fallecio-en-extranas-circunstancias/</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>https://radiohumedales.org/naya-no-se-suicido/</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
@@ -5620,27 +5550,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Rancagua</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Fernanda Camila Peña Hernández</t>
+          <t>Verónica Vanessa Díaz Vega</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -5650,17 +5580,17 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Asesinada por su pareja, quien se quita la vida después de cometer el femicidio</t>
+          <t>Encontrada muerta en canal de regadío en Rancagua por personal de Carabineros. Tras diligencias de SML, su conviviente es detenenido</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>No se informa</t>
+          <t>Estrangulada</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -5675,12 +5605,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Ricardo Moreno Oliva</t>
+          <t>Álex Ovando Chacón</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>43</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5690,37 +5620,42 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Femicidio y violación</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Sobreseída</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Deceso</t>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Rancagua</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -5730,12 +5665,12 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>https://www.vertice.tv/noticia/actualidad/2022/10/sujeto-advirtio-a-su-hermano-que-su-pareja-le-habia-sido-infiel-hoy-los-encontro-a-ambos-fallecidos</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-ohiggins/2022/09/29/encontraron-cuerpo-en-canal-de-regadio-acusado-de-violar-y-matar-a-su-pareja-a-prision-preventiva.shtml</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
@@ -5745,27 +5680,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>La Pintana</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Katherine Andrea Maturana Mena</t>
+          <t>Fernanda Camila Peña Hernández</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -5775,12 +5710,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Falleció por asfixia en su casa debido a la inhalación de gases tóxicos emanados por el incendio provocado por ex pareja, y lesiones provocadas previamente con arma cortopunzante. Amiga de Katherine indica que esta estuvo discutiendo con su ex pareja justo antes del suceso. El femicida fue formalizado por femicidio.</t>
+          <t>Asesinada por su pareja, quien se quita la vida después de cometer el femicidio</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Apuñalada y asfixiada</t>
+          <t>No se informa</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5790,7 +5725,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Ex pareja</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -5800,12 +5735,12 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Patricio Rodrigo Riffo Crespo</t>
+          <t>Ricardo Moreno Oliva</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>31</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5815,7 +5750,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -5823,16 +5758,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="W41" t="inlineStr">
         <is>
           <t>Femicidio íntimo</t>
@@ -5840,22 +5770,17 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>10° Juzgado de Garantía de Santiago</t>
+          <t>Deceso</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -5865,17 +5790,12 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2022/10/07/mujer-muere-tras-incendio-de-su-casa-en-la-pintana-y-la-pdi-indaga-si-es-un-femicidio.shtml</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>https://www.24horas.cl/actualidad/nacional/en-prision-preventiva-quedo-acusado-de-provocar-incendio-donde-mujer-fallecio</t>
+          <t>https://www.vertice.tv/noticia/actualidad/2022/10/sujeto-advirtio-a-su-hermano-que-su-pareja-le-habia-sido-infiel-hoy-los-encontro-a-ambos-fallecidos</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
@@ -5885,12 +5805,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Puente Alto</t>
+          <t>La Pintana</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5900,12 +5820,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ghislaine Estefanía Morales Ortega</t>
+          <t>Katherine Andrea Maturana Mena</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -5915,7 +5835,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Muere al caer por una ladera del río Maipo, tras ser empujada por su pareja</t>
+          <t>Falleció por asfixia en su casa debido a la inhalación de gases tóxicos emanados por el incendio provocado por ex pareja, y lesiones provocadas previamente con arma cortopunzante. Amiga de Katherine indica que esta estuvo discutiendo con su ex pareja justo antes del suceso. El femicida fue formalizado por femicidio.</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Apuñalada y asfixiada</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5925,7 +5850,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Ex pareja</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -5935,12 +5860,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Orlando Loncomilla Aguilera</t>
+          <t>Patricio Rodrigo Riffo Crespo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>43</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5953,6 +5878,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -5965,37 +5900,42 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Concluida</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Prisión preventiva</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Puente Alto</t>
+          <t>10° Juzgado de Garantía de Santiago</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>7474-2022</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>https://www.puentealtoaldia.com/por-femicidio-sera-formalizado-pareja-de-mujer-que-murio-tras-caer-por-precipicio-en-pirque/</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2022/10/07/mujer-muere-tras-incendio-de-su-casa-en-la-pintana-y-la-pdi-indaga-si-es-un-femicidio.shtml</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>https://www.24horas.cl/actualidad/nacional/en-prision-preventiva-quedo-acusado-de-provocar-incendio-donde-mujer-fallecio</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2022-12-22</t>
         </is>
       </c>
     </row>
@@ -6005,12 +5945,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-10-23</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>La Florida</t>
+          <t>Puente Alto</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6020,12 +5960,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>Ghislaine Estefanía Morales Ortega</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -6035,12 +5975,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Es apuñalada por la pareja de su hija durante una discusión, en que el sujeto quería ingresar a la casa. El agresor también hiere al hijo de la víctima y luego se suicida.</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Apuñalada</t>
+          <t>Muere al caer por una ladera del río Maipo, tras ser empujada por su pareja</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -6050,57 +5985,77 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Yerno</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Femicidio íntimo familiar</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+          <t>Orlando Loncomilla Aguilera</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Chileno</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Sobreseído</t>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Libre</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>7º Juzgado de Garantía de Santiago</t>
+          <t>Juzgado de Garantía de Puente Alto</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Causa reservada</t>
+          <t>7474-2022</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>https://docs.google.com/document/d/1V4GAhvyVaiotnLo0rHvOZPYFzgHwDjYwhMfOiDEnDGA/edit</t>
-        </is>
-      </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>https://www.diarioeldia.cl/pais/2022/10/24/hombre-asesina-suegra-hiere-su-cunado-con-un-arma-blanca-se-suicida-95594.html</t>
+          <t>https://www.puentealtoaldia.com/por-femicidio-sera-formalizado-pareja-de-mujer-que-murio-tras-caer-por-precipicio-en-pirque/</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -6110,12 +6065,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-10-23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>San Ramón</t>
+          <t>La Florida</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6125,12 +6080,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Daniela Rocío Quilodrán Peñaloza</t>
+          <t>MEDIOS NO INFORMAN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -6140,7 +6095,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Apuñalada y trasladada por ex pareja en un tambor. Carabineros consignan que el pasado 28 de mayo se registró una denuncia por violencia intrafamiliar. Además, por esto, el hombre fue formalizado por lesiones leves, aunque quedó en libertad.</t>
+          <t>Es apuñalada por la pareja de su hija durante una discusión, en que el sujeto quería ingresar a la casa. El agresor también hiere al hijo de la víctima y luego se suicida.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6148,79 +6103,59 @@
           <t>Apuñalada</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Yerno</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Femicidio íntimo familiar</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Guivenson Jean-Baptiste</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Haitiano</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
           <t>Sí</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>Femicidio</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>Prisión preventiva</t>
+          <t>Sobreseído</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>15° Juzgado de Garantía de Santiago</t>
+          <t>7º Juzgado de Garantía de Santiago</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Causa reservada</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>https://www.adnradio.cl/policial/2022/11/07/femicidio-en-san-ramon-detienen-a-un-hombre-trasladando-un-tambor-con-el-cuerpo-de-una-mujer-en-su-interior.html</t>
+          <t>https://docs.google.com/document/d/1V4GAhvyVaiotnLo0rHvOZPYFzgHwDjYwhMfOiDEnDGA/edit</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>https://www.msn.com/es-cl/noticias/otras/detienen-a-hombre-que-transportaba-cuerpo-de-mujer-en-un-tambor-en-comuna-de-san-ramón/ar-AA13QEqb</t>
+          <t>https://www.diarioeldia.cl/pais/2022/10/24/hombre-asesina-suegra-hiere-su-cunado-con-un-arma-blanca-se-suicida-95594.html</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
@@ -6235,32 +6170,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Ramón</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Keyti Sayuri Rodríguez Vásquez</t>
+          <t>Daniela Rocío Quilodrán Peñaloza</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Peruana</t>
+          <t>Chilena</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Durante la madrugada, fue apuñalada 5 veces por la espalda frente al Parque Forestal. Se trataría de un grupo de diez personas, quienes además le propinaron golpes de pies y puños, robaron su teléfono y documento de identidad.</t>
+          <t>Apuñalada y trasladada por ex pareja en un tambor. Carabineros consignan que el pasado 28 de mayo se registró una denuncia por violencia intrafamiliar. Además, por esto, el hombre fue formalizado por lesiones leves, aunque quedó en libertad.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6270,42 +6210,77 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Desconocidos</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Transfemicidio</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+          <t>Guivenson Jean-Baptiste</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Haitiano</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Sí</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Homicidio</t>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>3er Juzgado de Garantía de Santiago</t>
+          <t>15° Juzgado de Garantía de Santiago</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Causa reservada</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>https://www.t13.cl/noticia/nacional/joven-trans-encontrada-muerta-parque-forestal-apunalada-08-11-2022</t>
+          <t>https://www.adnradio.cl/policial/2022/11/07/femicidio-en-san-ramon-detienen-a-un-hombre-trasladando-un-tambor-con-el-cuerpo-de-una-mujer-en-su-interior.html</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/es-cl/noticias/otras/detienen-a-hombre-que-transportaba-cuerpo-de-mujer-en-un-tambor-en-comuna-de-san-ramón/ar-AA13QEqb</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
@@ -6320,127 +6295,77 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Quilpué</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Michelle Anaís Ayala Martínez</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>21</t>
+          <t>Keyti Sayuri Rodríguez Vásquez</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chilena</t>
+          <t>Peruana</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Asesinada (aún no se señala medio) y quemada por conviviente, amigo le ayuda a esconder el cuerpo. La familia de Michelle, madre de hijos de 2 y 5 años, puso denuncia por presunta desgracia. El 22 de noviembre es hallado su cuerpo en una quebrada y conviviente confiesa el femicidio. Tanto el conviviente como su amigo están formalizados por femicidio íntimo, el primero como autor, y el segundo como colaborador. Ambos quedaron en prisión preventiva.</t>
+          <t>Durante la madrugada, fue apuñalada 5 veces por la espalda frente al Parque Forestal. Se trataría de un grupo de diez personas, quienes además le propinaron golpes de pies y puños, robaron su teléfono y documento de identidad.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Estrangulada y quemada</t>
+          <t>Apuñalada</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Desconocidos</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Transfemicidio</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Luis Alberto Luna Marín (autor) /  Daniel Antonio Alarcón Leger (colaborador)</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>22 / 35</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Chileno / Chileno</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Comerciante</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Sí</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>2022-12-21</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>Prisión preventiva (autor) / arresto domiciliario nocturno, arraigo nacional y prohibición de acercarse a familiares de la víctima (encubridor)</t>
+          <t>Homicidio</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Quilpué</t>
+          <t>3er Juzgado de Garantía de Santiago</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>3681-2022 (reservada)</t>
+          <t>Causa reservada</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>https://www.latercera.com/nacional/noticia/brutal-femicidio-en-quilpue-pdi-detiene-a-sujeto-que-asesino-a-su-pareja-y-quemo-su-cuerpo-para-ocultar-el-crimen/X5DK52IMZVBKXJINBWDGY4FRHA/</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>https://www.chvnoticias.cl/casos-policiales/femicidio-imputado-quilpue-libertad-corte-apelaciones_20221203/</t>
+          <t>https://www.t13.cl/noticia/nacional/joven-trans-encontrada-muerta-parque-forestal-apunalada-08-11-2022</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
@@ -6455,27 +6380,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Valdivia</t>
+          <t>Quilpué</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Los Ríos</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cindy Marlene Muñoz Mallanes</t>
+          <t>Michelle Anaís Ayala Martínez</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -6483,24 +6408,19 @@
           <t>Chilena</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Médica veterinaria</t>
-        </is>
-      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Apuñalada por su ex pololo, quien luego se entregó y confesó el crimen, señalando que "se le pasó la mano". Los antecedentes indican que ella, quien se encontraba separada de hecho de su cónyuge, había tenido una relación de pololeo con el femicida, quien la asesinó por la decisión de ella de terminar la relación.</t>
+          <t>Asesinada (aún no se señala medio) y quemada por conviviente, amigo le ayuda a esconder el cuerpo. La familia de Michelle, madre de hijos de 2 y 5 años, puso denuncia por presunta desgracia. El 22 de noviembre es hallado su cuerpo en una quebrada y conviviente confiesa el femicidio. Tanto el conviviente como su amigo están formalizados por femicidio íntimo, el primero como autor, y el segundo como colaborador. Ambos quedaron en prisión preventiva.</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Apuñalada</t>
+          <t>Estrangulada y quemada</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Ex pareja</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -6510,34 +6430,39 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Víctor Manuel Zamorano Palma</t>
+          <t>Luis Alberto Luna Marín (autor) /  Daniel Antonio Alarcón Leger (colaborador)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22 / 35</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Chileno</t>
+          <t>Chileno / Chileno</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Comerciante</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="W47" t="inlineStr">
         <is>
           <t>Femicidio íntimo</t>
@@ -6545,37 +6470,37 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Sobreseída</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Deceso</t>
+          <t>Prisión preventiva (autor) / arresto domiciliario nocturno, arraigo nacional y prohibición de acercarse a familiares de la víctima (encubridor)</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Valdivia</t>
+          <t>Juzgado de Garantía de Quilpué</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>5892-2022</t>
+          <t>3681-2022 (reservada)</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-rios/2022/11/24/mujer-muere-apunalada-por-su-pareja-en-valdivia-dijo-que-se-le-paso-la-mano-en-una-discusion.shtml</t>
+          <t>https://www.latercera.com/nacional/noticia/brutal-femicidio-en-quilpue-pdi-detiene-a-sujeto-que-asesino-a-su-pareja-y-quemo-su-cuerpo-para-ocultar-el-crimen/X5DK52IMZVBKXJINBWDGY4FRHA/</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>https://informaalminuto.cl/femicidio-impacta-a-valdivia-joven-madre-fue-asesinada-por-su-conviviente/</t>
+          <t>https://www.chvnoticias.cl/casos-policiales/femicidio-imputado-quilpue-libertad-corte-apelaciones_20221203/</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
@@ -6590,52 +6515,52 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-11-27</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Molina</t>
+          <t>Valdivia</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Maule</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Carmen Narcisa Chávez Sevillano</t>
+          <t>Cindy Marlene Muñoz Mallanes</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ecuatoriana</t>
+          <t>Chilena</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Temporera, trabajadora subcontratada de aseo</t>
+          <t>Médica veterinaria</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Su cuerpo fue encontrado en avanzado estado de descomposición al interior de una viña en la comuna de Molina el 3/dic/22. Se encontró amordazada y con diversas lesiones. Su familia había puesto una denuncia por presunta desgracia ante Carabineros una semana atrás. El femicida, luego de ser detenido el 13/feb/23, confesó el crimen y comentó que la asesinó el 27/nov/22, luego de un encuentro y discusión en la viña San Hilario. Fiscalía lo formalizó por robo con homicidio pese a que el femicida declaró haber tenido una relación ocasional con ella.</t>
+          <t>Apuñalada por su ex pololo, quien luego se entregó y confesó el crimen, señalando que "se le pasó la mano". Los antecedentes indican que ella, quien se encontraba separada de hecho de su cónyuge, había tenido una relación de pololeo con el femicida, quien la asesinó por la decisión de ella de terminar la relación.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Golpeada</t>
+          <t>Apuñalada</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Relación ocasional</t>
+          <t>Ex pareja</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -6645,27 +6570,22 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Olman Alcine</t>
+          <t>Víctor Manuel Zamorano Palma</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>43</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Haitiano</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Obrero agrícola</t>
+          <t>Chileno</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -6673,59 +6593,54 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Robo con homicidio</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Deceso</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Molina</t>
+          <t>Juzgado de Garantía de Valdivia</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>1255-2022</t>
+          <t>5892-2022</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/Cl3WcY6NOy4/?igshid=YmRhOGE0MWQ%3D</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-rios/2022/11/24/mujer-muere-apunalada-por-su-pareja-en-valdivia-dijo-que-se-le-paso-la-mano-en-una-discusion.shtml</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>https://cooperativa.cl/noticias/pais/region-del-maule/detenido-el-presunto-asesino-de-mujer-que-fue-hallada-amordazada-en-molina/2023-02-14/200847.html</t>
+          <t>https://informaalminuto.cl/femicidio-impacta-a-valdivia-joven-madre-fue-asesinada-por-su-conviviente/</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2022-12-22</t>
         </is>
       </c>
     </row>
@@ -6735,72 +6650,77 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-11-27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Isla de Maipo</t>
+          <t>Molina</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>María Leticia Peña Pacheco</t>
+          <t>Carmen Narcisa Chávez Sevillano</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chilena</t>
+          <t>Ecuatoriana</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Temporera, trabajadora subcontratada de aseo</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Tras sostener una discusión, el sujeto la golpea al interior del domicilio y luego fuera de el hasta dar muerte a su madre. Es detenido posteriormente por Carabineros, los que fueron alertados por los vecinos. Madre e hijo compartían terreno, viviendo en casas separadas. Hay antecedentes de consumo de drogas de parte del hijo. No se registran antecedentes por VIF, pero sobrinx reconoce que pudo existir antecedentes de violencia verbal.</t>
+          <t>Su cuerpo fue encontrado en avanzado estado de descomposición al interior de una viña en la comuna de Molina el 3/dic/22. Se encontró amordazada y con diversas lesiones. Su familia había puesto una denuncia por presunta desgracia ante Carabineros una semana atrás. El femicida, luego de ser detenido el 13/feb/23, confesó el crimen y comentó que la asesinó el 27/nov/22, luego de un encuentro y discusión en la viña San Hilario. Fiscalía lo formalizó por robo con homicidio pese a que el femicida declaró haber tenido una relación ocasional con ella.</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Golpes</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Golpeada</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Hijo</t>
+          <t>Relación ocasional</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Femicidio íntimo familiar</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Ricardo Andrés Catalán Peña</t>
+          <t>Olman Alcine</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Chileno</t>
+          <t>Haitiano</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Obrero agrícola</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -6810,12 +6730,12 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>Consumo de drogas</t>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -6825,12 +6745,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>Parricidio</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>Amenazas, lesiones leves y tráfico de dorgas</t>
+          <t>Robo con homicidio</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6840,7 +6755,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2022-12-11</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6850,27 +6765,27 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Talagante</t>
+          <t>Juzgado de Garantía de Molina</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>5121-2022</t>
+          <t>1255-2022</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>https://www.cooperativa.cl/noticias/pais/policial/sucesos/hombre-fue-detenido-acusado-del-parricidio-de-su-madre-en-isla-de-maipo/2022-12-08/100916.html?s=09</t>
+          <t>https://www.instagram.com/p/Cl3WcY6NOy4/?igshid=YmRhOGE0MWQ%3D</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>https://cooperativa.cl/noticias/pais/policial/homicidios/prision-preventiva-para-hombre-acusado-de-matar-a-golpes-a-su-mama-en/2022-12-11/194235.html</t>
+          <t>https://cooperativa.cl/noticias/pais/region-del-maule/detenido-el-presunto-asesino-de-mujer-que-fue-hallada-amordazada-en-molina/2023-02-14/200847.html</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2023-03-22</t>
         </is>
       </c>
     </row>
@@ -6880,27 +6795,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-12-10</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Isla de Maipo</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Claudia Díaz Pérez</t>
+          <t>María Leticia Peña Pacheco</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -6908,34 +6823,39 @@
           <t>Chilena</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>exdirigenta y activista trans. propietaria de la “Peluquería Salón Claudita Unisex”</t>
-        </is>
-      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Hallada muerta en su casa el 11/dic, con data de muerte de 24 horas y evidente participación de terceros. Asfixia y traumatismo craneoencefálico. El 13 de enero de 2023 su asesino es formalizado por femicidio, utilizándose la Ley Gabriela</t>
+          <t>Tras sostener una discusión, el sujeto la golpea al interior del domicilio y luego fuera de el hasta dar muerte a su madre. Es detenido posteriormente por Carabineros, los que fueron alertados por los vecinos. Madre e hijo compartían terreno, viviendo en casas separadas. Hay antecedentes de consumo de drogas de parte del hijo. No se registran antecedentes por VIF, pero sobrinx reconoce que pudo existir antecedentes de violencia verbal.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Estrangulada y golpeada</t>
+          <t>Golpes</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Conocido</t>
+          <t>Hijo</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Transfemicidio</t>
+          <t>Femicidio íntimo familiar</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Julio Alexis Ramis Padilla</t>
+          <t>Ricardo Andrés Catalán Peña</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6953,64 +6873,64 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Consumo de drogas</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>Femicidio</t>
+          <t>Parricidio</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Amenazas, lesiones leves y tráfico de dorgas</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Concluida</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2022-12-11</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Privado de libertad</t>
+          <t>Prisión preventiva</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>Tribunal de Juicio Oral en lo Penal de San Antonio</t>
+          <t>Juzgado de Garantía de Talagante</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>9289-2022</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>18 años de presidio</t>
+          <t>5121-2022</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>https://www.adnradio.cl/policial/2022/12/12/asesinan-a-dirigenta-trans-de-73-anosclaudia-diaz-perez-en-cartagena.html</t>
+          <t>https://www.cooperativa.cl/noticias/pais/policial/sucesos/hombre-fue-detenido-acusado-del-parricidio-de-su-madre-en-isla-de-maipo/2022-12-08/100916.html?s=09</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>https://www.elmartutino.cl/noticia/sociedad/revelan-causa-de-muerte-de-dirigente-trans-de-cartagena</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/100126</t>
+          <t>https://cooperativa.cl/noticias/pais/policial/homicidios/prision-preventiva-para-hombre-acusado-de-matar-a-golpes-a-su-mama-en/2022-12-11/194235.html</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2022-12-16</t>
         </is>
       </c>
     </row>
@@ -7020,27 +6940,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2022-12-10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Arica y Parinacota</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fabiola Vargas Pallauta</t>
+          <t>Claudia Díaz Pérez</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -7050,32 +6970,32 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Matrona</t>
+          <t>exdirigenta y activista trans. propietaria de la “Peluquería Salón Claudita Unisex”</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>De acuerdo con antecedentes preliminares recogidos por la PDI, la víctima fue trasladada hasta el Hospital Regional Dr. Juan Noé, lugar desde donde reportaron su delicado estado de salud tras el violento ataque, resistiendo al menos cuatro paros cardiorrespiratorios. El propio Yévenes llamó al establecimiento médico para pedir una ambulancia, pero asegurando que la fallecida "se había caído". Cabe señalar que, si bien no habían denuncias formales, familiares y amigos afirmaron que la fallecida sufría constantes agresiones por parte del sujeto.</t>
+          <t>Hallada muerta en su casa el 11/dic, con data de muerte de 24 horas y evidente participación de terceros. Asfixia y traumatismo craneoencefálico. El 13 de enero de 2023 su asesino es formalizado por femicidio, utilizándose la Ley Gabriela</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Golpes</t>
+          <t>Estrangulada y golpeada</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pareja</t>
+          <t>Conocido</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Transfemicidio</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Ricardo Yévenes Ramírez</t>
+          <t>Julio Alexis Ramis Padilla</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -7083,11 +7003,6 @@
           <t>Chileno</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Médico Psiquiatra</t>
-        </is>
-      </c>
       <c r="R51" t="inlineStr">
         <is>
           <t>No</t>
@@ -7105,47 +7020,57 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Femicidio íntimo</t>
+          <t>Femicidio</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Prisión Preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Arica</t>
+          <t>Tribunal de Juicio Oral en lo Penal de San Antonio</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>6423-2022</t>
+          <t>9289-2022</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>18 años de presidio</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>https://www.24horas.cl/regiones/zona-norte/arica/femicidio-en-arica-murio-matrona-tras-violenta-golpiza-de-su-pareja</t>
+          <t>https://www.adnradio.cl/policial/2022/12/12/asesinan-a-dirigenta-trans-de-73-anosclaudia-diaz-perez-en-cartagena.html</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-arica-y-parinacota/2022/12/21/matrona-queda-con-muerte-cerebral-tras-golpiza-de-su-pareja-un-conocido-psiquiatra-de-arica.shtml</t>
+          <t>https://www.elmartutino.cl/noticia/sociedad/revelan-causa-de-muerte-de-dirigente-trans-de-cartagena</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/100126</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
@@ -7155,27 +7080,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Coronel</t>
+          <t>Arica</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bio Bío</t>
+          <t>Arica y Parinacota</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Estela del Pilar Vega Estuardo</t>
+          <t>Fabiola Vargas Pallauta</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -7183,14 +7108,19 @@
           <t>Chilena</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Matrona</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>En medio de una discusión en el interior de su domicilio, Jiménez estranguló a la víctima y luego tomó un objeto contundente con el que le propinó múltiples golpes, provocándole la muerte. Tras ello, envolvió el cadáver en plástico y lo escondió en un armario. Posteriormente, se dirigió a la Subcomisaría de Carabineros de Lagunillas y presentó una denuncia por presunta desgracia.</t>
+          <t>De acuerdo con antecedentes preliminares recogidos por la PDI, la víctima fue trasladada hasta el Hospital Regional Dr. Juan Noé, lugar desde donde reportaron su delicado estado de salud tras el violento ataque, resistiendo al menos cuatro paros cardiorrespiratorios. El propio Yévenes llamó al establecimiento médico para pedir una ambulancia, pero asegurando que la fallecida "se había caído". Cabe señalar que, si bien no habían denuncias formales, familiares y amigos afirmaron que la fallecida sufría constantes agresiones por parte del sujeto.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Golpes y asfixia</t>
+          <t>Golpes</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -7205,12 +7135,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>René Antonio Jiménez Molina</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>53</t>
+          <t>Ricardo Yévenes Ramírez</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -7218,6 +7143,11 @@
           <t>Chileno</t>
         </is>
       </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Médico Psiquiatra</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
           <t>No</t>
@@ -7235,7 +7165,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Femicidio</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -7243,29 +7173,34 @@
           <t>En curso</t>
         </is>
       </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>2022-12-22</t>
+        </is>
+      </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Prisión Preventiva</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Coronel</t>
+          <t>Juzgado de Garantía de Arica</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>2380-2022</t>
+          <t>6423-2022</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>https://www.t13.cl/noticia/concepcion/nacional/pdi-detiene-femicida-coronel-habia-hecho-denuncia-presunta-desgracia-su-victima</t>
+          <t>https://www.24horas.cl/regiones/zona-norte/arica/femicidio-en-arica-murio-matrona-tras-violenta-golpiza-de-su-pareja</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>https://www.diarioconcepcion.cl/ciudad/2022/12/25/amplian-detencion-de-presunto-autor-de-femicidio-en-coronel-el-tercero-del-biobio-este-2022.html</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-arica-y-parinacota/2022/12/21/matrona-queda-con-muerte-cerebral-tras-golpiza-de-su-pareja-un-conocido-psiquiatra-de-arica.shtml</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
@@ -7280,27 +7215,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Calbuco</t>
+          <t>Coronel</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>Bio Bío</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Lorena Alejandra Cárdenas Díaz</t>
+          <t>Estela del Pilar Vega Estuardo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -7310,7 +7245,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Mujer hallada el 23/dic en un sitio eriazo con signos de violencia sexual, golpes y asfixia. Se sospecha de pareja, quien familia dice que la agredía física y psicológicamente. Hay un sujeto ya imputado.</t>
+          <t>En medio de una discusión en el interior de su domicilio, Jiménez estranguló a la víctima y luego tomó un objeto contundente con el que le propinó múltiples golpes, provocándole la muerte. Tras ello, envolvió el cadáver en plástico y lo escondió en un armario. Posteriormente, se dirigió a la Subcomisaría de Carabineros de Lagunillas y presentó una denuncia por presunta desgracia.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -7318,54 +7253,54 @@
           <t>Golpes y asfixia</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>René Antonio Jiménez Molina</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Ignacio Barría González</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Chileno</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>Familia dice que pareja es muy celoso y que la maltrataba física y psicológicamente. No asistió al funeral.</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Violación con femicidio</t>
+          <t>Femicidio</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Concluida</t>
+          <t>En curso</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -7375,27 +7310,27 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>Juzgado de Letras y Garantía de Calbuco</t>
+          <t>Juzgado de Garantía de Coronel</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>1046-2022 (reservada)</t>
+          <t>2380-2022</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>https://diariousach.cl/brutal-femicidio-en-calbuco-joven-fue-violada-y-golpeada-antes-de-ser</t>
+          <t>https://www.t13.cl/noticia/concepcion/nacional/pdi-detiene-femicida-coronel-habia-hecho-denuncia-presunta-desgracia-su-victima</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>https://www.msn.com/es-cl/noticias/otras/en-prisi%C3%B3n-preventiva-queda-imputado-por-violaci%C3%B3n-y-femicidio-de-joven-en-calbuco/ar-AA15Pp4z</t>
+          <t>https://www.diarioconcepcion.cl/ciudad/2022/12/25/amplian-detencion-de-presunto-autor-de-femicidio-en-coronel-el-tercero-del-biobio-este-2022.html</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
@@ -7405,27 +7340,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-12-24</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>La Granja</t>
+          <t>Calbuco</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cinthia Rivas Corrales</t>
+          <t>Lorena Alejandra Cárdenas Díaz</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -7435,27 +7370,27 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Mujer hallada el 28/dic en su casa con data de muerte de más de 48 horas. A su lado estaba inconsciente su conviviente, quien se encuentra con riesgo vital.</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Conviviente</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Mujer hallada el 23/dic en un sitio eriazo con signos de violencia sexual, golpes y asfixia. Se sospecha de pareja, quien familia dice que la agredía física y psicológicamente. Hay un sujeto ya imputado.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Golpes y asfixia</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Jorge Ovidio Saavedra Durán</t>
+          <t>Ignacio Barría González</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -7463,9 +7398,19 @@
           <t>Chileno</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>Prohibición de acercarse</t>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Familia dice que pareja es muy celoso y que la maltrataba física y psicológicamente. No asistió al funeral.</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -7473,14 +7418,39 @@
           <t>Sí</t>
         </is>
       </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Violación con femicidio</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Juzgado de Letras y Garantía de Calbuco</t>
+        </is>
+      </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>1046-2022 (reservada)</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>https://www.emol.com/noticias/Nacional/2022/12/28/1082352/detenciones-vif-femicidio-la-granja.html</t>
+          <t>https://diariousach.cl/brutal-femicidio-en-calbuco-joven-fue-violada-y-golpeada-antes-de-ser</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>https://www.msn.com/es-cl/noticias/otras/en-prisi%C3%B3n-preventiva-queda-imputado-por-violaci%C3%B3n-y-femicidio-de-joven-en-calbuco/ar-AA15Pp4z</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
@@ -7495,27 +7465,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2022-12-24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Retiro</t>
+          <t>La Granja</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>El Maule</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>María Angélica Vallejos Troncoso</t>
+          <t>Cinthia Rivas Corrales</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -7525,17 +7495,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Mujer asesinada junto a su madre por su ex pareja en su casa, mientras ambas dormían. El tipo la había amenazado de muerte el pasado 6/dic. Luego de asesinarlas, el femicida intentó suicidarse con un herbicida, pero no lo logró. El femicida tenía antecedentes de VIF en 2018, pero no queda claro si contra María Angélica u otra persona. Hay querella de Delegación presidencial</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Golpes</t>
+          <t>Mujer hallada el 28/dic en su casa con data de muerte de más de 48 horas. A su lado estaba inconsciente su conviviente, quien se encuentra con riesgo vital.</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Cónyuge</t>
+          <t>Conviviente</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -7545,12 +7510,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Enrique Antonio Troncoso Soto</t>
+          <t>Jorge Ovidio Saavedra Durán</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>57</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -7558,74 +7523,29 @@
           <t>Chileno</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>La había amenazado de muerte el 6/dic de 2022. El femicida tiene antecedentes de VIF y una condena por lesiones graves en 2018, pero no queda claro si contra María Angélica u otra persona.</t>
-        </is>
-      </c>
       <c r="U55" t="inlineStr">
         <is>
+          <t>Prohibición de acercarse</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>Homicidio calificado</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>Concluida</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>Privado de libertad</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>Tribunal de Juicio Oral en lo Penal de Cauquenes</t>
-        </is>
-      </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>184-2023</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>Presidio perpetuo calificado</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>https://www.linaresenlinea.cl/2022/12/30/decretan-prision-preventiva-para-imputado-por-femicidio-y-homicidio-ocurrido-en-retiro/</t>
-        </is>
-      </c>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/106788</t>
+          <t>https://www.emol.com/noticias/Nacional/2022/12/28/1082352/detenciones-vif-femicidio-la-granja.html</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
@@ -7650,12 +7570,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Carmen Troncoso (G.C.T.L.)</t>
+          <t>María Angélica Vallejos Troncoso</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -7665,7 +7585,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Mujer asesinada junto a su hija por su ex pareja de su hija en su casa, mientras ambas dormían. Luego de asesinarlas, el femicida intentó suicidarse con un herbicida, pero no lo logró. El femicida tenía antecedentes de VIF en 2018, pero no queda claro si contra su hija (María Angélica) u otra persona. Hay querella de Delegación Presidencial.</t>
+          <t>Mujer asesinada junto a su madre por su ex pareja en su casa, mientras ambas dormían. El tipo la había amenazado de muerte el pasado 6/dic. Luego de asesinarlas, el femicida intentó suicidarse con un herbicida, pero no lo logró. El femicida tenía antecedentes de VIF en 2018, pero no queda claro si contra María Angélica u otra persona. Hay querella de Delegación presidencial</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -7675,12 +7595,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Yerno</t>
+          <t>Cónyuge</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Femicidio íntimo familiar</t>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7700,21 +7620,26 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>Había amenazado de muerte a su hija el 6/dic de 2022.  El femicida tiene antecedentes de VIF y una condena por lesiones graves en 2018, pero no queda claro si contra su hija (María Angélica) u otra persona.</t>
+          <t>La había amenazado de muerte el 6/dic de 2022. El femicida tiene antecedentes de VIF y una condena por lesiones graves en 2018, pero no queda claro si contra María Angélica u otra persona.</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
           <t>Homicidio calificado</t>
         </is>
       </c>
@@ -7740,7 +7665,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>1613-2022</t>
+          <t>184-2023</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
@@ -7770,27 +7695,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dalcahue</t>
+          <t>Retiro</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>El Maule</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lastenia Barrientos Soto</t>
+          <t>Carmen Troncoso (G.C.T.L.)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -7800,122 +7725,132 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Hallada muerta en su casa. Se informa que la agredieron sexualmente. Los medios no revelan motivos de la muerte, salvo uno en que se señala que habría un ataque sexual. La muerte es investigada por la Brigada de Homicidios. Causa aún no se judicializa.</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sí</t>
+          <t>Mujer asesinada junto a su hija por su ex pareja de su hija en su casa, mientras ambas dormían. Luego de asesinarlas, el femicida intentó suicidarse con un herbicida, pero no lo logró. El femicida tenía antecedentes de VIF en 2018, pero no queda claro si contra su hija (María Angélica) u otra persona. Hay querella de Delegación Presidencial.</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Golpes</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Yerno</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo familiar</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Miguel Artemio Álvarez Álvarez</t>
+          <t>Enrique Antonio Troncoso Soto</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Chileno</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>se realizó la detención de un hombre de 40 años por la Policía de Investigaciones (PDI) luego de ser acusado por violar y asesinar a una mujer de 64 años en Dalcahue, Región de Los Lagos.</t>
+          <t>Había amenazado de muerte a su hija el 6/dic de 2022.  El femicida tiene antecedentes de VIF y una condena por lesiones graves en 2018, pero no queda claro si contra su hija (María Angélica) u otra persona.</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Femicidio no íntimo</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>Violación</t>
+          <t>Homicidio calificado</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Formalizado</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2023-01-14</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Prisión</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>No judicializada aún, debiera ser Juzgado de Garantía de Castro</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Cauquenes</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>2931-2022 (reservada)</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>https://www.canalsurpatagonia.cl/investigan-muerte-de-mujer-de-64-anos-en-chiloe-habria-sido-atacada-sexualmente-en-su-casa/</t>
+          <t>1613-2022</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-lagos/2022/12/30/pdi-investiga-muerte-de-adulta-mayor-al-interior-de-su-vivienda-en-dalcahue.shtml</t>
+          <t>https://www.linaresenlinea.cl/2022/12/30/decretan-prision-preventiva-para-imputado-por-femicidio-y-homicidio-ocurrido-en-retiro/</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>https://www.encancha.cl/enlahora/nacional/2023/1/14/hombre-de-40-anos-fue-arrestado-por-violacion-femicidio-contra-una-mujer-de-64-en-situacion-de-discapacidad-198578.html</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>https://laopiniondechiloe.cl/dalcahue-a-prision-sujeto-por-violacion-con-femicidio-autopsia-revela-atroz-ataque/</t>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/106788</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-12-29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>La Florida</t>
+          <t>Dalcahue</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>María José Mercado Sweet</t>
+          <t>Lastenia Barrientos Soto</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -7923,104 +7858,124 @@
           <t>Chilena</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Tatuadora</t>
-        </is>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Mantuvo una relación de pareja por 2 años con Alfonso Garcés, quien la agredía física y psicologicamente. El 12 de septiembre, Garcés irrumpe en su casa y la amenaza de muerte con un cuchillo. María José huye a un centro comercial de La Florida, donde se suicida ante la desesperación</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Suicidio</t>
+          <t>Hallada muerta en su casa. Se informa que la agredieron sexualmente. Los medios no revelan motivos de la muerte, salvo uno en que se señala que habría un ataque sexual. La muerte es investigada por la Brigada de Homicidios. Causa aún no se judicializa.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Pololo</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Suicidio femicida</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Alfonso Andrés Garcés Velasquez</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Chileno</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Miguel Artemio Álvarez Álvarez</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>Denunció a Garcés por VIF en mayo de 2022</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>Si</t>
+          <t>se realizó la detención de un hombre de 40 años por la Policía de Investigaciones (PDI) luego de ser acusado por violar y asesinar a una mujer de 64 años en Dalcahue, Región de Los Lagos.</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>Suicidio</t>
+          <t>Femicidio no íntimo</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Violación</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>Formalizado</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>Prisión</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>No judicializada aún, debiera ser Juzgado de Garantía de Castro</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>2931-2022 (reservada)</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>https://www.canalsurpatagonia.cl/investigan-muerte-de-mujer-de-64-anos-en-chiloe-habria-sido-atacada-sexualmente-en-su-casa/</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-lagos/2022/12/30/pdi-investiga-muerte-de-adulta-mayor-al-interior-de-su-vivienda-en-dalcahue.shtml</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>https://www.encancha.cl/enlahora/nacional/2023/1/14/hombre-de-40-anos-fue-arrestado-por-violacion-femicidio-contra-una-mujer-de-64-en-situacion-de-discapacidad-198578.html</t>
+        </is>
+      </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>https://laopiniondechiloe.cl/dalcahue-a-prision-sujeto-por-violacion-con-femicidio-autopsia-revela-atroz-ataque/</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Viña del Mar</t>
+          <t>La Florida</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>María José Mercado Sweet</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -8028,14 +7983,19 @@
           <t>Chilena</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Tatuadora</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Encontrada muerta por asfixia con cinturón en toma Michelle Bachelet de Viña del Mar. Conviviente es detenido. Sernameg el 21 de septiembre esperaba resultado de autopsia para presentar querella. SML descarta el mismo día participación de terceros. No obstante, familia segura que es femicidio, y por antecedentes de prensa al menos se trataría de un suicidio femicida ya que la mujer fue violentada antes de su muerte por conviviente.</t>
+          <t>Mantuvo una relación de pareja por 2 años con Alfonso Garcés, quien la agredía física y psicologicamente. El 12 de septiembre, Garcés irrumpe en su casa y la amenaza de muerte con un cuchillo. María José huye a un centro comercial de La Florida, donde se suicida ante la desesperación</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Asfixiada</t>
+          <t>Suicidio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -8045,7 +8005,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Conviviente</t>
+          <t>Pololo</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -8055,7 +8015,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+          <t>Alfonso Andrés Garcés Velasquez</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -8073,6 +8033,16 @@
           <t>No</t>
         </is>
       </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Denunció a Garcés por VIF en mayo de 2022</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
           <t>No</t>
@@ -8081,61 +8051,36 @@
       <c r="W59" t="inlineStr">
         <is>
           <t>Suicidio</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>2022-09-22</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>Juzgado de Garantía de Viña del Mar</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Causa Reservada</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>https://www.epicentrochile.com/2022/09/18/investigan-posible-femicidio-en-el-sector-de-forestal-alto/ https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/09/21/sernameg-espera-resultado-de-autopsia-para-proceder-con-querella-por-muerte-de-mujer-en-vina-del-mar.shtml</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>https://cooperativa.cl/noticias/pais/region-de-valparaiso/fiscalia-descarta-femicidio-en-caso-de-mujer-de-29-anos-que-fue-hallada/2022-09-21/200201.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Viña del Mar</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jazmín Pinda</t>
+          <t>MEDIOS NO INFORMAN</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -8145,80 +8090,195 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Se quitó la vida después de haber asistido a una fiesta el 16 de septiembre, donde fue drogada, golpeada y agredida sexualmente</t>
+          <t>Encontrada muerta por asfixia con cinturón en toma Michelle Bachelet de Viña del Mar. Conviviente es detenido. Sernameg el 21 de septiembre esperaba resultado de autopsia para presentar querella. SML descarta el mismo día participación de terceros. No obstante, familia segura que es femicidio, y por antecedentes de prensa al menos se trataría de un suicidio femicida ya que la mujer fue violentada antes de su muerte por conviviente.</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
+          <t>Asfixiada</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Conviviente</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Suicidio femicida</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
           <t>Suicidio</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Suicidio femicida</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>DESCONOCIDO</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Suicidio</t>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Viña del Mar</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Causa Reservada</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>https://www.t13.cl/videos/nacional/video-conmocion-suicidio-joven-acuso-violacion-antofagasta</t>
+          <t>https://www.epicentrochile.com/2022/09/18/investigan-posible-femicidio-en-el-sector-de-forestal-alto/ https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/09/21/sernameg-espera-resultado-de-autopsia-para-proceder-con-querella-por-muerte-de-mujer-en-vina-del-mar.shtml</t>
+        </is>
+      </c>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/region-de-valparaiso/fiscalia-descarta-femicidio-en-caso-de-mujer-de-29-anos-que-fue-hallada/2022-09-21/200201.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Jazmín Pinda</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Se quitó la vida después de haber asistido a una fiesta el 16 de septiembre, donde fue drogada, golpeada y agredida sexualmente</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Suicidio</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Suicidio femicida</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>DESCONOCIDO</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Suicidio</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>https://www.t13.cl/videos/nacional/video-conmocion-suicidio-joven-acuso-violacion-antofagasta</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
         <v>4</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>2022-09-04</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Copiapó</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Atacama</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>María Luisa Loyola Rojas</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Chilena</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>El suicidio es por la violencia ejercida de quien entonces era su pareja su nombre es Job David Parra Robles.
 La violencia que ejercía David era más que nada psicológica pero también a veces llegaba a los golpes, estaba enamorada de él porque en principio de la relación fue el hombre ideal para ella pero con el tiempo él cambio, siempre pensó que iba a cambiar y el mismo le decía que lo haría pero nunca lo hizo.
@@ -8228,119 +8288,54 @@
 El 4 de septiembre se quita la vida ya no aguantaba más</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Suicidio</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>Pololo</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>Suicidio femicida</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>Job David Parra Robles</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>5</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022-10-04</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Viña del Mar</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Valparaíso</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Solange Mesina Díaz</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Chilena</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Fue agredida sexualmente de forma reiterada por familiares directos durante su niñez y adolescencia. Hace tres años efectuó la denuncia que resultó ser un proceso revictimizante, tuvo que declarar frente a los violadores y además, se los encontraba en la calle y la locomoción, donde la maltrataron. Fallece a los dos días de intentar suicidarse</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Suicidio</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Primo</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Suicidio femicida</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF62" t="inlineStr">
-        <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/10/06/anuncian-acciones-legales-contra-familiares-de-joven-que-se-lanzo-desde-puente-en-vina-del-mar.shtml</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Puente Alto</t>
+          <t>Viña del Mar</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Yanira</t>
+          <t>Solange Mesina Díaz</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -8350,7 +8345,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Es hostigada y secuestrada (en dos ocasiones) por su ex pololo, también menor de edad. Servicios de atención no realizan su trabajo adecuadamente, dejando desprotegida a Yanira. Luego de 4 intentos de suicidio -en que no es atendida en psiquiatría- logra quitarse la vida</t>
+          <t>Fue agredida sexualmente de forma reiterada por familiares directos durante su niñez y adolescencia. Hace tres años efectuó la denuncia que resultó ser un proceso revictimizante, tuvo que declarar frente a los violadores y además, se los encontraba en la calle y la locomoción, donde la maltrataron. Fallece a los dos días de intentar suicidarse</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -8360,12 +8355,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Ex pololo</t>
+          <t>Primo</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -8373,117 +8368,182 @@
           <t>Suicidio femicida</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>MENOR DE EDAD</t>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-valparaiso/2022/10/06/anuncian-acciones-legales-contra-familiares-de-joven-que-se-lanzo-desde-puente-en-vina-del-mar.shtml</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Puente Alto</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Yanira</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Es hostigada y secuestrada (en dos ocasiones) por su ex pololo, también menor de edad. Servicios de atención no realizan su trabajo adecuadamente, dejando desprotegida a Yanira. Luego de 4 intentos de suicidio -en que no es atendida en psiquiatría- logra quitarse la vida</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Suicidio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Ex pololo</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Suicidio femicida</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>MENOR DE EDAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>1</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>2022-12-28</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Maule</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Maule</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>MEDIOS NO INFORMAN</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Chileno</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Ex conviviente de su hija llega al hogar que compartía con la misma y su nieto, disparándole. Al huir el agresor, la hija de la víctima lo mata. Se investiga defensa propia, pues había denuncias por VIF previas contra el agresor. La causa es reservada.</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Baleado</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>Ex conviviente de su hija</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>Víctima colateral</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>Juan Pablo Torres</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>Resulta muerto tras ataque</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>Sí, hija del asesinado tenía denuncia previa</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
         <is>
           <t>Homicidio</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="Y65" t="inlineStr">
         <is>
           <t>Reservada, se analiza legítima defensa de hija del occiso</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="Z65" t="inlineStr">
         <is>
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="AA64" t="inlineStr">
+      <c r="AA65" t="inlineStr">
         <is>
           <t>Muerto</t>
         </is>
       </c>
-      <c r="AB64" t="inlineStr">
+      <c r="AB65" t="inlineStr">
         <is>
           <t>Juzgado de Garantía de Talca</t>
         </is>
       </c>
-      <c r="AF64" t="inlineStr">
+      <c r="AF65" t="inlineStr">
         <is>
           <t>https://www.chvnoticias.cl/casos-policiales/maule-cinco-crimenes-ex-suegro-ex-pareja-talca_20221228/</t>
         </is>
       </c>
-      <c r="AG64" t="inlineStr">
+      <c r="AG65" t="inlineStr">
         <is>
           <t>https://www.chvnoticias.cl/casos-policiales/doble-homicidio-maule-sujeto-asesino-ex-suegro-ex-parea-apunalo_20221228/</t>
         </is>
